--- a/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.737967140336821</v>
+        <v>3.737967140336764</v>
       </c>
       <c r="C2">
-        <v>0.6590611021582902</v>
+        <v>0.6590611021582617</v>
       </c>
       <c r="D2">
-        <v>0.004539858103028926</v>
+        <v>0.004539858103013827</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,10 +427,10 @@
         <v>1.224917515518726</v>
       </c>
       <c r="G2">
-        <v>0.9063600036246839</v>
+        <v>0.9063600036246697</v>
       </c>
       <c r="H2">
-        <v>0.5518340058195079</v>
+        <v>0.5518340058195221</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.827904431082217</v>
+        <v>1.827904431082175</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.230857380601776</v>
+        <v>3.230857380601662</v>
       </c>
       <c r="C3">
         <v>0.5739330759106736</v>
       </c>
       <c r="D3">
-        <v>0.00555438949566156</v>
+        <v>0.005554389495542544</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.080777347246638</v>
+        <v>1.080777347246652</v>
       </c>
       <c r="G3">
-        <v>0.8033245050978621</v>
+        <v>0.803324505097855</v>
       </c>
       <c r="H3">
-        <v>0.5037306003218944</v>
+        <v>0.5037306003219086</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.922882456708521</v>
+        <v>2.922882456708635</v>
       </c>
       <c r="C4">
-        <v>0.5219950722610349</v>
+        <v>0.5219950722607223</v>
       </c>
       <c r="D4">
-        <v>0.006230433248942902</v>
+        <v>0.006230433248825662</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>0.9962243916859705</v>
       </c>
       <c r="G4">
-        <v>0.7432783389868902</v>
+        <v>0.7432783389868973</v>
       </c>
       <c r="H4">
-        <v>0.4766643022644459</v>
+        <v>0.4766643022644601</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.396757087238569</v>
+        <v>1.396757087238512</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,19 +532,19 @@
         <v>0.5008935259501754</v>
       </c>
       <c r="D5">
-        <v>0.006517824690637219</v>
+        <v>0.006517824690634555</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.962648910233213</v>
+        <v>0.9626489102332272</v>
       </c>
       <c r="G5">
         <v>0.71952744801996</v>
       </c>
       <c r="H5">
-        <v>0.4661910383176391</v>
+        <v>0.4661910383176249</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.33226388778013</v>
+        <v>1.332263887780144</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.777386933112211</v>
+        <v>2.777386933112155</v>
       </c>
       <c r="C6">
-        <v>0.497392932443887</v>
+        <v>0.4973929324439723</v>
       </c>
       <c r="D6">
-        <v>0.006566225550054483</v>
+        <v>0.006566225550052707</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,10 +579,10 @@
         <v>0.9571238215863929</v>
       </c>
       <c r="G6">
-        <v>0.7156245341127914</v>
+        <v>0.7156245341127843</v>
       </c>
       <c r="H6">
-        <v>0.4644838062950356</v>
+        <v>0.4644838062950569</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.321613371953376</v>
+        <v>1.321613371953362</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.921196633665772</v>
+        <v>2.921196633665659</v>
       </c>
       <c r="C7">
-        <v>0.5217102565018479</v>
+        <v>0.5217102565021037</v>
       </c>
       <c r="D7">
-        <v>0.006234262718087358</v>
+        <v>0.006234262717979888</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.995768156703619</v>
+        <v>0.9957681567035905</v>
       </c>
       <c r="G7">
-        <v>0.7429552308854355</v>
+        <v>0.7429552308854213</v>
       </c>
       <c r="H7">
-        <v>0.476520883577642</v>
+        <v>0.4765208835776491</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.39588326399678</v>
+        <v>1.395883263996765</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.562310066495968</v>
+        <v>3.562310066496025</v>
       </c>
       <c r="C8">
         <v>0.6296278760667917</v>
       </c>
       <c r="D8">
-        <v>0.004877700146437292</v>
+        <v>0.004877700146509234</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.174326813969671</v>
+        <v>1.174326813969657</v>
       </c>
       <c r="G8">
-        <v>0.8701078653011933</v>
+        <v>0.8701078653012075</v>
       </c>
       <c r="H8">
         <v>0.5346945036807682</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.733523180538697</v>
+        <v>1.733523180538668</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.85469274067276</v>
+        <v>4.854692740672817</v>
       </c>
       <c r="C9">
-        <v>0.8448753347365141</v>
+        <v>0.8448753347366278</v>
       </c>
       <c r="D9">
-        <v>0.00271725351836416</v>
+        <v>0.002717253518254914</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.83906972463501</v>
+        <v>5.839069724635067</v>
       </c>
       <c r="C10">
-        <v>1.006804152819996</v>
+        <v>1.006804152820024</v>
       </c>
       <c r="D10">
-        <v>0.001568437323826721</v>
+        <v>0.001568437323832939</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.877983837811527</v>
+        <v>1.877983837811499</v>
       </c>
       <c r="G10">
-        <v>1.380906051599553</v>
+        <v>1.380906051599567</v>
       </c>
       <c r="H10">
-        <v>0.7916201405169403</v>
+        <v>0.7916201405169332</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.022210210177903</v>
+        <v>3.022210210177832</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -760,19 +760,19 @@
         <v>1.08170441946686</v>
       </c>
       <c r="D11">
-        <v>0.001180235298709142</v>
+        <v>0.001180235298728682</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.031372207413327</v>
+        <v>2.031372207413312</v>
       </c>
       <c r="G11">
-        <v>1.493786710345844</v>
+        <v>1.49378671034583</v>
       </c>
       <c r="H11">
-        <v>0.8518470860086893</v>
+        <v>0.8518470860086822</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.300350326913915</v>
+        <v>3.300350326913929</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.473953301722531</v>
+        <v>6.473953301722474</v>
       </c>
       <c r="C12">
-        <v>1.11028519407671</v>
+        <v>1.110285194076539</v>
       </c>
       <c r="D12">
-        <v>0.001056811246267664</v>
+        <v>0.001056811246466616</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.091071516822183</v>
+        <v>2.091071516822211</v>
       </c>
       <c r="G12">
         <v>1.537843314159957</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.408660127858013</v>
+        <v>3.408660127857971</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.435990942025342</v>
+        <v>6.435990942025398</v>
       </c>
       <c r="C13">
-        <v>1.104119439221819</v>
+        <v>1.104119439222075</v>
       </c>
       <c r="D13">
-        <v>0.001082265580720332</v>
+        <v>0.001082265580615527</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.078137829025124</v>
+        <v>2.078137829025138</v>
       </c>
       <c r="G13">
-        <v>1.528292898347559</v>
+        <v>1.528292898347587</v>
       </c>
       <c r="H13">
         <v>0.8704526753850246</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.38518984113594</v>
+        <v>3.385189841135954</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.312550750819923</v>
+        <v>6.312550750820094</v>
       </c>
       <c r="C14">
-        <v>1.084051167143627</v>
+        <v>1.084051167143542</v>
       </c>
       <c r="D14">
-        <v>0.001169580631591671</v>
+        <v>0.00116958063147532</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.036249720443521</v>
+        <v>2.036249720443536</v>
       </c>
       <c r="G14">
-        <v>1.497383668961078</v>
+        <v>1.497383668961106</v>
       </c>
       <c r="H14">
         <v>0.8537824266212084</v>
@@ -909,10 +909,10 @@
         <v>6.237211450782638</v>
       </c>
       <c r="C15">
-        <v>1.071788391403203</v>
+        <v>1.071788391402748</v>
       </c>
       <c r="D15">
-        <v>0.001226277490401273</v>
+        <v>0.001226277490400385</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>2.010810661667193</v>
       </c>
       <c r="G15">
-        <v>1.478628440716562</v>
+        <v>1.478628440716548</v>
       </c>
       <c r="H15">
-        <v>0.8437018804387435</v>
+        <v>0.8437018804387222</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.263058509581199</v>
+        <v>3.263058509581228</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.809325986493889</v>
+        <v>5.809325986493832</v>
       </c>
       <c r="C16">
-        <v>1.001937419279727</v>
+        <v>1.001937419279869</v>
       </c>
       <c r="D16">
-        <v>0.001596853595991377</v>
+        <v>0.001596853595995817</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>1.373700359673663</v>
       </c>
       <c r="H16">
-        <v>0.7878102757408385</v>
+        <v>0.7878102757408456</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.004414901622638</v>
+        <v>3.004414901622624</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.54995962691271</v>
+        <v>5.549959626912823</v>
       </c>
       <c r="C17">
-        <v>0.9594296950407966</v>
+        <v>0.9594296950409102</v>
       </c>
       <c r="D17">
-        <v>0.001861347951201964</v>
+        <v>0.0018613479512819</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.783254260527812</v>
+        <v>1.783254260527841</v>
       </c>
       <c r="G17">
-        <v>1.311432194338522</v>
+        <v>1.311432194338551</v>
       </c>
       <c r="H17">
-        <v>0.7550708254940659</v>
+        <v>0.755070825494073</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.850376908506732</v>
+        <v>2.850376908506718</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.401813055871116</v>
+        <v>5.40181305587123</v>
       </c>
       <c r="C18">
         <v>0.9350942286076247</v>
       </c>
       <c r="D18">
-        <v>0.002025824401941101</v>
+        <v>0.002025824401949095</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.73528470023237</v>
+        <v>1.735284700232341</v>
       </c>
       <c r="G18">
-        <v>1.276325070120393</v>
+        <v>1.276325070120379</v>
       </c>
       <c r="H18">
         <v>0.7367624152795216</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.763295735697227</v>
+        <v>2.763295735697199</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.351820538958521</v>
+        <v>5.351820538958634</v>
       </c>
       <c r="C19">
         <v>0.9268730931614755</v>
       </c>
       <c r="D19">
-        <v>0.002083519379175947</v>
+        <v>0.002083519379374899</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.719185745311151</v>
+        <v>1.719185745311137</v>
       </c>
       <c r="G19">
         <v>1.264554241406316</v>
       </c>
       <c r="H19">
-        <v>0.7306491042557113</v>
+        <v>0.7306491042557042</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>5.577460117884243</v>
       </c>
       <c r="C20">
-        <v>0.9639426620658753</v>
+        <v>0.9639426620655343</v>
       </c>
       <c r="D20">
-        <v>0.001831886509010339</v>
+        <v>0.001831886508999681</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.792201785353598</v>
+        <v>1.792201785353583</v>
       </c>
       <c r="G20">
         <v>1.317986097402724</v>
       </c>
       <c r="H20">
-        <v>0.7585009251672261</v>
+        <v>0.7585009251672332</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.866613554919027</v>
+        <v>2.866613554918999</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.348750808499631</v>
+        <v>6.348750808499801</v>
       </c>
       <c r="C21">
-        <v>1.089939453300389</v>
+        <v>1.089939453300133</v>
       </c>
       <c r="D21">
-        <v>0.001143255275090738</v>
+        <v>0.001143255275103172</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.048507190439253</v>
+        <v>2.048507190439238</v>
       </c>
       <c r="G21">
         <v>1.506425027478315</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.864660606467396</v>
+        <v>6.864660606467226</v>
       </c>
       <c r="C22">
-        <v>1.173577100972636</v>
+        <v>1.173577100972722</v>
       </c>
       <c r="D22">
-        <v>0.000833387963877108</v>
+        <v>0.0008333879637705266</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.225582487958533</v>
+        <v>2.225582487958505</v>
       </c>
       <c r="G22">
-        <v>1.637349332987554</v>
+        <v>1.637349332987569</v>
       </c>
       <c r="H22">
-        <v>0.9298156641966244</v>
+        <v>0.9298156641966386</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.653002157490292</v>
+        <v>3.653002157490349</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.58808599273766</v>
+        <v>6.588085992737717</v>
       </c>
       <c r="C23">
-        <v>1.128805303566992</v>
+        <v>1.128805303567106</v>
       </c>
       <c r="D23">
-        <v>0.0009842614171438058</v>
+        <v>0.0009842614169226493</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.130101727073807</v>
+        <v>2.130101727073836</v>
       </c>
       <c r="G23">
-        <v>1.566682537850369</v>
+        <v>1.566682537850383</v>
       </c>
       <c r="H23">
-        <v>0.8912541316835956</v>
+        <v>0.8912541316835814</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.479508557865572</v>
+        <v>3.479508557865543</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.565024162259078</v>
+        <v>5.565024162259192</v>
       </c>
       <c r="C24">
-        <v>0.9619020324261953</v>
+        <v>0.9619020324263658</v>
       </c>
       <c r="D24">
-        <v>0.001845167664190406</v>
+        <v>0.001845167664093594</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.788153980646385</v>
+        <v>1.788153980646399</v>
       </c>
       <c r="G24">
-        <v>1.315020938593193</v>
+        <v>1.315020938593207</v>
       </c>
       <c r="H24">
-        <v>0.7569485872466473</v>
+        <v>0.7569485872466544</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,22 +1289,22 @@
         <v>4.500038223882939</v>
       </c>
       <c r="C25">
-        <v>0.7861060667954405</v>
+        <v>0.7861060667956963</v>
       </c>
       <c r="D25">
-        <v>0.003235967400552653</v>
+        <v>0.003235967400469164</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.451964596642497</v>
+        <v>1.451964596642526</v>
       </c>
       <c r="G25">
         <v>1.070074128112367</v>
       </c>
       <c r="H25">
-        <v>0.6316587653754766</v>
+        <v>0.6316587653754695</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.246863992621016</v>
+        <v>2.246863992621044</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.737967140336764</v>
+        <v>3.737967140336821</v>
       </c>
       <c r="C2">
-        <v>0.6590611021582617</v>
+        <v>0.6590611021582902</v>
       </c>
       <c r="D2">
-        <v>0.004539858103013827</v>
+        <v>0.004539858103028926</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,10 +427,10 @@
         <v>1.224917515518726</v>
       </c>
       <c r="G2">
-        <v>0.9063600036246697</v>
+        <v>0.9063600036246839</v>
       </c>
       <c r="H2">
-        <v>0.5518340058195221</v>
+        <v>0.5518340058195079</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.827904431082175</v>
+        <v>1.827904431082217</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.230857380601662</v>
+        <v>3.230857380601776</v>
       </c>
       <c r="C3">
         <v>0.5739330759106736</v>
       </c>
       <c r="D3">
-        <v>0.005554389495542544</v>
+        <v>0.00555438949566156</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.080777347246652</v>
+        <v>1.080777347246638</v>
       </c>
       <c r="G3">
-        <v>0.803324505097855</v>
+        <v>0.8033245050978621</v>
       </c>
       <c r="H3">
-        <v>0.5037306003219086</v>
+        <v>0.5037306003218944</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.922882456708635</v>
+        <v>2.922882456708521</v>
       </c>
       <c r="C4">
-        <v>0.5219950722607223</v>
+        <v>0.5219950722610349</v>
       </c>
       <c r="D4">
-        <v>0.006230433248825662</v>
+        <v>0.006230433248942902</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>0.9962243916859705</v>
       </c>
       <c r="G4">
-        <v>0.7432783389868973</v>
+        <v>0.7432783389868902</v>
       </c>
       <c r="H4">
-        <v>0.4766643022644601</v>
+        <v>0.4766643022644459</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.396757087238512</v>
+        <v>1.396757087238569</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,19 +532,19 @@
         <v>0.5008935259501754</v>
       </c>
       <c r="D5">
-        <v>0.006517824690634555</v>
+        <v>0.006517824690637219</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9626489102332272</v>
+        <v>0.962648910233213</v>
       </c>
       <c r="G5">
         <v>0.71952744801996</v>
       </c>
       <c r="H5">
-        <v>0.4661910383176249</v>
+        <v>0.4661910383176391</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.332263887780144</v>
+        <v>1.33226388778013</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.777386933112155</v>
+        <v>2.777386933112211</v>
       </c>
       <c r="C6">
-        <v>0.4973929324439723</v>
+        <v>0.497392932443887</v>
       </c>
       <c r="D6">
-        <v>0.006566225550052707</v>
+        <v>0.006566225550054483</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -579,10 +579,10 @@
         <v>0.9571238215863929</v>
       </c>
       <c r="G6">
-        <v>0.7156245341127843</v>
+        <v>0.7156245341127914</v>
       </c>
       <c r="H6">
-        <v>0.4644838062950569</v>
+        <v>0.4644838062950356</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.321613371953362</v>
+        <v>1.321613371953376</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.921196633665659</v>
+        <v>2.921196633665772</v>
       </c>
       <c r="C7">
-        <v>0.5217102565021037</v>
+        <v>0.5217102565018479</v>
       </c>
       <c r="D7">
-        <v>0.006234262717979888</v>
+        <v>0.006234262718087358</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9957681567035905</v>
+        <v>0.995768156703619</v>
       </c>
       <c r="G7">
-        <v>0.7429552308854213</v>
+        <v>0.7429552308854355</v>
       </c>
       <c r="H7">
-        <v>0.4765208835776491</v>
+        <v>0.476520883577642</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.395883263996765</v>
+        <v>1.39588326399678</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.562310066496025</v>
+        <v>3.562310066495968</v>
       </c>
       <c r="C8">
         <v>0.6296278760667917</v>
       </c>
       <c r="D8">
-        <v>0.004877700146509234</v>
+        <v>0.004877700146437292</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.174326813969657</v>
+        <v>1.174326813969671</v>
       </c>
       <c r="G8">
-        <v>0.8701078653012075</v>
+        <v>0.8701078653011933</v>
       </c>
       <c r="H8">
         <v>0.5346945036807682</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.733523180538668</v>
+        <v>1.733523180538697</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.854692740672817</v>
+        <v>4.85469274067276</v>
       </c>
       <c r="C9">
-        <v>0.8448753347366278</v>
+        <v>0.8448753347365141</v>
       </c>
       <c r="D9">
-        <v>0.002717253518254914</v>
+        <v>0.00271725351836416</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.839069724635067</v>
+        <v>5.83906972463501</v>
       </c>
       <c r="C10">
-        <v>1.006804152820024</v>
+        <v>1.006804152819996</v>
       </c>
       <c r="D10">
-        <v>0.001568437323832939</v>
+        <v>0.001568437323826721</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.877983837811499</v>
+        <v>1.877983837811527</v>
       </c>
       <c r="G10">
-        <v>1.380906051599567</v>
+        <v>1.380906051599553</v>
       </c>
       <c r="H10">
-        <v>0.7916201405169332</v>
+        <v>0.7916201405169403</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.022210210177832</v>
+        <v>3.022210210177903</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -760,19 +760,19 @@
         <v>1.08170441946686</v>
       </c>
       <c r="D11">
-        <v>0.001180235298728682</v>
+        <v>0.001180235298709142</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.031372207413312</v>
+        <v>2.031372207413327</v>
       </c>
       <c r="G11">
-        <v>1.49378671034583</v>
+        <v>1.493786710345844</v>
       </c>
       <c r="H11">
-        <v>0.8518470860086822</v>
+        <v>0.8518470860086893</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.300350326913929</v>
+        <v>3.300350326913915</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.473953301722474</v>
+        <v>6.473953301722531</v>
       </c>
       <c r="C12">
-        <v>1.110285194076539</v>
+        <v>1.11028519407671</v>
       </c>
       <c r="D12">
-        <v>0.001056811246466616</v>
+        <v>0.001056811246267664</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.091071516822211</v>
+        <v>2.091071516822183</v>
       </c>
       <c r="G12">
         <v>1.537843314159957</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.408660127857971</v>
+        <v>3.408660127858013</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.435990942025398</v>
+        <v>6.435990942025342</v>
       </c>
       <c r="C13">
-        <v>1.104119439222075</v>
+        <v>1.104119439221819</v>
       </c>
       <c r="D13">
-        <v>0.001082265580615527</v>
+        <v>0.001082265580720332</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.078137829025138</v>
+        <v>2.078137829025124</v>
       </c>
       <c r="G13">
-        <v>1.528292898347587</v>
+        <v>1.528292898347559</v>
       </c>
       <c r="H13">
         <v>0.8704526753850246</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.385189841135954</v>
+        <v>3.38518984113594</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.312550750820094</v>
+        <v>6.312550750819923</v>
       </c>
       <c r="C14">
-        <v>1.084051167143542</v>
+        <v>1.084051167143627</v>
       </c>
       <c r="D14">
-        <v>0.00116958063147532</v>
+        <v>0.001169580631591671</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.036249720443536</v>
+        <v>2.036249720443521</v>
       </c>
       <c r="G14">
-        <v>1.497383668961106</v>
+        <v>1.497383668961078</v>
       </c>
       <c r="H14">
         <v>0.8537824266212084</v>
@@ -909,10 +909,10 @@
         <v>6.237211450782638</v>
       </c>
       <c r="C15">
-        <v>1.071788391402748</v>
+        <v>1.071788391403203</v>
       </c>
       <c r="D15">
-        <v>0.001226277490400385</v>
+        <v>0.001226277490401273</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>2.010810661667193</v>
       </c>
       <c r="G15">
-        <v>1.478628440716548</v>
+        <v>1.478628440716562</v>
       </c>
       <c r="H15">
-        <v>0.8437018804387222</v>
+        <v>0.8437018804387435</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.263058509581228</v>
+        <v>3.263058509581199</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.809325986493832</v>
+        <v>5.809325986493889</v>
       </c>
       <c r="C16">
-        <v>1.001937419279869</v>
+        <v>1.001937419279727</v>
       </c>
       <c r="D16">
-        <v>0.001596853595995817</v>
+        <v>0.001596853595991377</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>1.373700359673663</v>
       </c>
       <c r="H16">
-        <v>0.7878102757408456</v>
+        <v>0.7878102757408385</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.004414901622624</v>
+        <v>3.004414901622638</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.549959626912823</v>
+        <v>5.54995962691271</v>
       </c>
       <c r="C17">
-        <v>0.9594296950409102</v>
+        <v>0.9594296950407966</v>
       </c>
       <c r="D17">
-        <v>0.0018613479512819</v>
+        <v>0.001861347951201964</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.783254260527841</v>
+        <v>1.783254260527812</v>
       </c>
       <c r="G17">
-        <v>1.311432194338551</v>
+        <v>1.311432194338522</v>
       </c>
       <c r="H17">
-        <v>0.755070825494073</v>
+        <v>0.7550708254940659</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.850376908506718</v>
+        <v>2.850376908506732</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.40181305587123</v>
+        <v>5.401813055871116</v>
       </c>
       <c r="C18">
         <v>0.9350942286076247</v>
       </c>
       <c r="D18">
-        <v>0.002025824401949095</v>
+        <v>0.002025824401941101</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.735284700232341</v>
+        <v>1.73528470023237</v>
       </c>
       <c r="G18">
-        <v>1.276325070120379</v>
+        <v>1.276325070120393</v>
       </c>
       <c r="H18">
         <v>0.7367624152795216</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.763295735697199</v>
+        <v>2.763295735697227</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.351820538958634</v>
+        <v>5.351820538958521</v>
       </c>
       <c r="C19">
         <v>0.9268730931614755</v>
       </c>
       <c r="D19">
-        <v>0.002083519379374899</v>
+        <v>0.002083519379175947</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.719185745311137</v>
+        <v>1.719185745311151</v>
       </c>
       <c r="G19">
         <v>1.264554241406316</v>
       </c>
       <c r="H19">
-        <v>0.7306491042557042</v>
+        <v>0.7306491042557113</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>5.577460117884243</v>
       </c>
       <c r="C20">
-        <v>0.9639426620655343</v>
+        <v>0.9639426620658753</v>
       </c>
       <c r="D20">
-        <v>0.001831886508999681</v>
+        <v>0.001831886509010339</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.792201785353583</v>
+        <v>1.792201785353598</v>
       </c>
       <c r="G20">
         <v>1.317986097402724</v>
       </c>
       <c r="H20">
-        <v>0.7585009251672332</v>
+        <v>0.7585009251672261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.866613554918999</v>
+        <v>2.866613554919027</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.348750808499801</v>
+        <v>6.348750808499631</v>
       </c>
       <c r="C21">
-        <v>1.089939453300133</v>
+        <v>1.089939453300389</v>
       </c>
       <c r="D21">
-        <v>0.001143255275103172</v>
+        <v>0.001143255275090738</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.048507190439238</v>
+        <v>2.048507190439253</v>
       </c>
       <c r="G21">
         <v>1.506425027478315</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.864660606467226</v>
+        <v>6.864660606467396</v>
       </c>
       <c r="C22">
-        <v>1.173577100972722</v>
+        <v>1.173577100972636</v>
       </c>
       <c r="D22">
-        <v>0.0008333879637705266</v>
+        <v>0.000833387963877108</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.225582487958505</v>
+        <v>2.225582487958533</v>
       </c>
       <c r="G22">
-        <v>1.637349332987569</v>
+        <v>1.637349332987554</v>
       </c>
       <c r="H22">
-        <v>0.9298156641966386</v>
+        <v>0.9298156641966244</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.653002157490349</v>
+        <v>3.653002157490292</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.588085992737717</v>
+        <v>6.58808599273766</v>
       </c>
       <c r="C23">
-        <v>1.128805303567106</v>
+        <v>1.128805303566992</v>
       </c>
       <c r="D23">
-        <v>0.0009842614169226493</v>
+        <v>0.0009842614171438058</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.130101727073836</v>
+        <v>2.130101727073807</v>
       </c>
       <c r="G23">
-        <v>1.566682537850383</v>
+        <v>1.566682537850369</v>
       </c>
       <c r="H23">
-        <v>0.8912541316835814</v>
+        <v>0.8912541316835956</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.479508557865543</v>
+        <v>3.479508557865572</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.565024162259192</v>
+        <v>5.565024162259078</v>
       </c>
       <c r="C24">
-        <v>0.9619020324263658</v>
+        <v>0.9619020324261953</v>
       </c>
       <c r="D24">
-        <v>0.001845167664093594</v>
+        <v>0.001845167664190406</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.788153980646399</v>
+        <v>1.788153980646385</v>
       </c>
       <c r="G24">
-        <v>1.315020938593207</v>
+        <v>1.315020938593193</v>
       </c>
       <c r="H24">
-        <v>0.7569485872466544</v>
+        <v>0.7569485872466473</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1289,22 +1289,22 @@
         <v>4.500038223882939</v>
       </c>
       <c r="C25">
-        <v>0.7861060667956963</v>
+        <v>0.7861060667954405</v>
       </c>
       <c r="D25">
-        <v>0.003235967400469164</v>
+        <v>0.003235967400552653</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.451964596642526</v>
+        <v>1.451964596642497</v>
       </c>
       <c r="G25">
         <v>1.070074128112367</v>
       </c>
       <c r="H25">
-        <v>0.6316587653754695</v>
+        <v>0.6316587653754766</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.246863992621044</v>
+        <v>2.246863992621016</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.737967140336821</v>
+        <v>3.737789298060363</v>
       </c>
       <c r="C2">
-        <v>0.6590611021582902</v>
+        <v>0.6587082019918569</v>
       </c>
       <c r="D2">
-        <v>0.004539858103028926</v>
+        <v>0.004552234125727139</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.224917515518726</v>
+        <v>1.223200337108125</v>
       </c>
       <c r="G2">
-        <v>0.9063600036246839</v>
+        <v>0.2938645600593759</v>
       </c>
       <c r="H2">
-        <v>0.5518340058195079</v>
+        <v>0.6148972626904055</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5508266921610598</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.827904431082217</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.827858745967418</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.230857380601776</v>
+        <v>3.230742236237006</v>
       </c>
       <c r="C3">
-        <v>0.5739330759106736</v>
+        <v>0.5736383609900315</v>
       </c>
       <c r="D3">
-        <v>0.00555438949566156</v>
+        <v>0.005563872499645406</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.080777347246638</v>
+        <v>1.079272537432885</v>
       </c>
       <c r="G3">
-        <v>0.8033245050978621</v>
+        <v>0.2566298157049403</v>
       </c>
       <c r="H3">
-        <v>0.5037306003218944</v>
+        <v>0.5493939455773003</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.5028407890948543</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.557629982457286</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.557602198546064</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.922882456708521</v>
+        <v>2.922800503204655</v>
       </c>
       <c r="C4">
-        <v>0.5219950722610349</v>
+        <v>0.5217349744733042</v>
       </c>
       <c r="D4">
-        <v>0.006230433248942902</v>
+        <v>0.006237939395932202</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9962243916859705</v>
+        <v>0.9948452337909117</v>
       </c>
       <c r="G4">
-        <v>0.7432783389868902</v>
+        <v>0.2348087807300416</v>
       </c>
       <c r="H4">
-        <v>0.4766643022644459</v>
+        <v>0.5113452525681197</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4758440322984256</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.396757087238569</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.396738103676114</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.798073778223113</v>
+        <v>2.798004215071103</v>
       </c>
       <c r="C5">
-        <v>0.5008935259501754</v>
+        <v>0.5006473037498154</v>
       </c>
       <c r="D5">
-        <v>0.006517824690637219</v>
+        <v>0.006524479830124719</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.962648910233213</v>
+        <v>0.9613199433987774</v>
       </c>
       <c r="G5">
-        <v>0.71952744801996</v>
+        <v>0.2261473179306464</v>
       </c>
       <c r="H5">
-        <v>0.4661910383176391</v>
+        <v>0.4963264024995553</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4653985502438758</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.33226388778013</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.332248050961496</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.777386933112211</v>
+        <v>2.77731936413943</v>
       </c>
       <c r="C6">
-        <v>0.497392932443887</v>
+        <v>0.4971490016093867</v>
       </c>
       <c r="D6">
-        <v>0.006566225550054483</v>
+        <v>0.006572736771549792</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9571238215863929</v>
+        <v>0.955803132582119</v>
       </c>
       <c r="G6">
-        <v>0.7156245341127914</v>
+        <v>0.2247221773252335</v>
       </c>
       <c r="H6">
-        <v>0.4644838062950356</v>
+        <v>0.4938602751498351</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4636959004019729</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.321613371953376</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.321598033959518</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.921196633665772</v>
+        <v>2.921114851614448</v>
       </c>
       <c r="C7">
-        <v>0.5217102565018479</v>
+        <v>0.5214503467221618</v>
       </c>
       <c r="D7">
-        <v>0.006234262718087358</v>
+        <v>0.006241757565845774</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.995768156703619</v>
+        <v>0.9943896795835627</v>
       </c>
       <c r="G7">
-        <v>0.7429552308854355</v>
+        <v>0.2346910735874559</v>
       </c>
       <c r="H7">
-        <v>0.476520883577642</v>
+        <v>0.5111408085119535</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4757009904210605</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.39588326399678</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.395864324520247</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.562310066495968</v>
+        <v>3.562155072097198</v>
       </c>
       <c r="C8">
-        <v>0.6296278760667917</v>
+        <v>0.6292952986705416</v>
       </c>
       <c r="D8">
-        <v>0.004877700146437292</v>
+        <v>0.00488912349726256</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.174326813969671</v>
+        <v>1.172683960261608</v>
       </c>
       <c r="G8">
-        <v>0.8701078653011933</v>
+        <v>0.2807902162080893</v>
       </c>
       <c r="H8">
-        <v>0.5346945036807682</v>
+        <v>0.5918234592438978</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5337283091457579</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.733523180538697</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.733484197034798</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.85469274067276</v>
+        <v>4.854341437826179</v>
       </c>
       <c r="C9">
-        <v>0.8448753347365141</v>
+        <v>0.8443889942584235</v>
       </c>
       <c r="D9">
-        <v>0.00271725351836416</v>
+        <v>0.002734523606102712</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.561574791643849</v>
+        <v>1.559366325732483</v>
       </c>
       <c r="G9">
-        <v>1.149633239053969</v>
+        <v>0.3810410051454483</v>
       </c>
       <c r="H9">
-        <v>0.6716705220853427</v>
+        <v>0.7703094257186933</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.6703915021616211</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.447227025304599</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.447124803379893</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.83906972463501</v>
+        <v>5.838523845782049</v>
       </c>
       <c r="C10">
-        <v>1.006804152819996</v>
+        <v>1.006193949583405</v>
       </c>
       <c r="D10">
-        <v>0.001568437323826721</v>
+        <v>0.001588417951579046</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.877983837811527</v>
+        <v>1.875314927859691</v>
       </c>
       <c r="G10">
-        <v>1.380906051599553</v>
+        <v>0.4632680679016232</v>
       </c>
       <c r="H10">
-        <v>0.7916201405169403</v>
+        <v>0.9187178737553268</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.790086534615547</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.022210210177903</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.022034393921729</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.298127737440041</v>
+        <v>6.297477036194095</v>
       </c>
       <c r="C11">
-        <v>1.08170441946686</v>
+        <v>1.08103439131753</v>
       </c>
       <c r="D11">
-        <v>0.001180235298709142</v>
+        <v>0.001200971347569357</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.031372207413327</v>
+        <v>2.028479403708076</v>
       </c>
       <c r="G11">
-        <v>1.493786710345844</v>
+        <v>0.5032358464122098</v>
       </c>
       <c r="H11">
-        <v>0.8518470860086893</v>
+        <v>0.9913224393647369</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.8501896690767623</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.300350326913915</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.300130865657664</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.473953301722531</v>
+        <v>6.473259972580877</v>
       </c>
       <c r="C12">
-        <v>1.11028519407671</v>
+        <v>1.109591897219588</v>
       </c>
       <c r="D12">
-        <v>0.001056811246267664</v>
+        <v>0.001077750017174139</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.091071516822183</v>
+        <v>2.088091350327929</v>
       </c>
       <c r="G12">
-        <v>1.537843314159957</v>
+        <v>0.5188102846515363</v>
       </c>
       <c r="H12">
-        <v>0.8756176592491585</v>
+        <v>1.01968459191329</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.8739119235511623</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.408660127858013</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.408422150675648</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.435990942025342</v>
+        <v>6.435306935033793</v>
       </c>
       <c r="C13">
-        <v>1.104119439221819</v>
+        <v>1.103431183070853</v>
       </c>
       <c r="D13">
-        <v>0.001082265580720332</v>
+        <v>0.001103164671722112</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.078137829025124</v>
+        <v>2.075176601683111</v>
       </c>
       <c r="G13">
-        <v>1.528292898347559</v>
+        <v>0.5154352292687037</v>
       </c>
       <c r="H13">
-        <v>0.8704526753850246</v>
+        <v>1.013535234731734</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.8687574150624471</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.38518984113594</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.384955950580149</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.312550750819923</v>
+        <v>6.311896605253253</v>
       </c>
       <c r="C14">
-        <v>1.084051167143627</v>
+        <v>1.083379237706509</v>
       </c>
       <c r="D14">
-        <v>0.001169580631591671</v>
+        <v>0.001190335125814457</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.036249720443521</v>
+        <v>2.033349784346541</v>
       </c>
       <c r="G14">
-        <v>1.497383668961078</v>
+        <v>0.5045079022979309</v>
       </c>
       <c r="H14">
-        <v>0.8537824266212084</v>
+        <v>0.9936375379121642</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.8521210650945861</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.309197282257813</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.30897634123167</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.237211450782638</v>
+        <v>6.236575194140471</v>
       </c>
       <c r="C15">
-        <v>1.071788391403203</v>
+        <v>1.07112637879419</v>
       </c>
       <c r="D15">
-        <v>0.001226277490401273</v>
+        <v>0.001246932064394635</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.010810661667193</v>
+        <v>2.007947915401871</v>
       </c>
       <c r="G15">
-        <v>1.478628440716562</v>
+        <v>0.4978741682422623</v>
       </c>
       <c r="H15">
-        <v>0.8437018804387435</v>
+        <v>0.9815671768630096</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.8420610865207507</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.263058509581199</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.262845222733119</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.809325986493889</v>
+        <v>5.80878658272934</v>
       </c>
       <c r="C16">
-        <v>1.001937419279727</v>
+        <v>1.001331046463889</v>
       </c>
       <c r="D16">
-        <v>0.001596853595991377</v>
+        <v>0.001616774070950733</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.868170548884635</v>
+        <v>1.865515939998943</v>
       </c>
       <c r="G16">
-        <v>1.373700359673663</v>
+        <v>0.4607134250407654</v>
       </c>
       <c r="H16">
-        <v>0.7878102757408385</v>
+        <v>0.9140865538754923</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.7862845774549143</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.004414901622638</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.004241692117404</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.54995962691271</v>
+        <v>5.549475086140205</v>
       </c>
       <c r="C17">
-        <v>0.9594296950407966</v>
+        <v>0.9588564896622529</v>
       </c>
       <c r="D17">
-        <v>0.001861347951201964</v>
+        <v>0.001880686387426778</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.783254260527812</v>
+        <v>1.780723316461646</v>
       </c>
       <c r="G17">
-        <v>1.311432194338522</v>
+        <v>0.4386194464208302</v>
       </c>
       <c r="H17">
-        <v>0.7550708254940659</v>
+        <v>0.8740831463562415</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.7536135040933729</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.850376908506732</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.850225360176978</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.401813055871116</v>
+        <v>5.401358578187455</v>
       </c>
       <c r="C18">
-        <v>0.9350942286076247</v>
+        <v>0.9345397807286417</v>
       </c>
       <c r="D18">
-        <v>0.002025824401941101</v>
+        <v>0.002044784164821678</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.73528470023237</v>
+        <v>1.732823562124821</v>
       </c>
       <c r="G18">
-        <v>1.276325070120393</v>
+        <v>0.4261478250040653</v>
       </c>
       <c r="H18">
-        <v>0.7367624152795216</v>
+        <v>0.851544182578607</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.7353436899721686</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.763295735697227</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.76315572947388</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.351820538958521</v>
+        <v>5.351375999460174</v>
       </c>
       <c r="C19">
-        <v>0.9268730931614755</v>
+        <v>0.9263249445081385</v>
       </c>
       <c r="D19">
-        <v>0.002083519379175947</v>
+        <v>0.002102343780919114</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.719185745311151</v>
+        <v>1.716748028643508</v>
       </c>
       <c r="G19">
-        <v>1.264554241406316</v>
+        <v>0.4219637617482874</v>
       </c>
       <c r="H19">
-        <v>0.7306491042557113</v>
+        <v>0.8439898302084856</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.729243328720969</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.734056035640009</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.733919793156403</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.577460117884243</v>
+        <v>5.576969895152899</v>
       </c>
       <c r="C20">
-        <v>0.9639426620658753</v>
+        <v>0.963365959786131</v>
       </c>
       <c r="D20">
-        <v>0.001831886509010339</v>
+        <v>0.001851291542672939</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.792201785353598</v>
+        <v>1.789657817142484</v>
       </c>
       <c r="G20">
-        <v>1.317986097402724</v>
+        <v>0.4409464627401007</v>
       </c>
       <c r="H20">
-        <v>0.7585009251672261</v>
+        <v>0.8782920321721264</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.7570364025862517</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.866613554919027</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.866459798857704</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.348750808499631</v>
+        <v>6.348087976964734</v>
       </c>
       <c r="C21">
-        <v>1.089939453300389</v>
+        <v>1.089262746001197</v>
       </c>
       <c r="D21">
-        <v>0.001143255275090738</v>
+        <v>0.001164054637952994</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.048507190439253</v>
+        <v>2.045589326218462</v>
       </c>
       <c r="G21">
-        <v>1.506425027478315</v>
+        <v>0.5077049629928752</v>
       </c>
       <c r="H21">
-        <v>0.8586513857562466</v>
+        <v>0.9994571965881107</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.8569801088659545</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.331431652002337</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.331206966494506</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.864660606467396</v>
+        <v>6.863867473793277</v>
       </c>
       <c r="C22">
-        <v>1.173577100972636</v>
+        <v>1.172831384171843</v>
       </c>
       <c r="D22">
-        <v>0.000833387963877108</v>
+        <v>0.0008546031204819116</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.225582487958533</v>
+        <v>2.222404900965088</v>
       </c>
       <c r="G22">
-        <v>1.637349332987554</v>
+        <v>0.5539404747940466</v>
       </c>
       <c r="H22">
-        <v>0.9298156641966244</v>
+        <v>1.083789835336717</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.9280007150927787</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.653002157490292</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.652719126985133</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.58808599273766</v>
+        <v>6.587364240440081</v>
       </c>
       <c r="C23">
-        <v>1.128805303566992</v>
+        <v>1.128096796106604</v>
       </c>
       <c r="D23">
-        <v>0.0009842614171438058</v>
+        <v>0.001005305863016837</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.130101727073807</v>
+        <v>2.127064363835743</v>
       </c>
       <c r="G23">
-        <v>1.566682537850369</v>
+        <v>0.5289982569228755</v>
       </c>
       <c r="H23">
-        <v>0.8912541316835956</v>
+        <v>1.038257360469316</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.8895167583158923</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.479508557865572</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.479257991848357</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.565024162259078</v>
+        <v>5.564536512903771</v>
       </c>
       <c r="C24">
-        <v>0.9619020324261953</v>
+        <v>0.9613269120557391</v>
       </c>
       <c r="D24">
-        <v>0.001845167664190406</v>
+        <v>0.001864542725323659</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.788153980646385</v>
+        <v>1.785615904634781</v>
       </c>
       <c r="G24">
-        <v>1.315020938593193</v>
+        <v>0.4398937058931551</v>
       </c>
       <c r="H24">
-        <v>0.7569485872466473</v>
+        <v>0.8763877735063659</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.7554873225248855</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.859268408912598</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.859115653767901</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.500038223882939</v>
+        <v>4.4997473371767</v>
       </c>
       <c r="C25">
-        <v>0.7861060667954405</v>
+        <v>0.7856629071207806</v>
       </c>
       <c r="D25">
-        <v>0.003235967400552653</v>
+        <v>0.00325189604753362</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.451964596642497</v>
+        <v>1.449915679286434</v>
       </c>
       <c r="G25">
-        <v>1.070074128112367</v>
+        <v>0.35262340577016</v>
       </c>
       <c r="H25">
-        <v>0.6316587653754766</v>
+        <v>0.7193897311205859</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.6304679696925533</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.246863992621016</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>2.246782516765009</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.737789298060363</v>
+        <v>3.436346245358891</v>
       </c>
       <c r="C2">
-        <v>0.6587082019918569</v>
+        <v>0.8853742034845027</v>
       </c>
       <c r="D2">
-        <v>0.004552234125727139</v>
+        <v>0.07292103646277326</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.223200337108125</v>
+        <v>2.936272219815237</v>
       </c>
       <c r="G2">
-        <v>0.2938645600593759</v>
+        <v>0.0007987322265592758</v>
       </c>
       <c r="H2">
-        <v>0.6148972626904055</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5508266921610598</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4386633486503513</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.977443082853398</v>
       </c>
       <c r="L2">
-        <v>1.827858745967418</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.182582767436855</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.230742236237006</v>
+        <v>2.975434149727278</v>
       </c>
       <c r="C3">
-        <v>0.5736383609900315</v>
+        <v>0.7628389646520475</v>
       </c>
       <c r="D3">
-        <v>0.005563872499645406</v>
+        <v>0.06385048816515848</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.079272537432885</v>
+        <v>2.665487873268788</v>
       </c>
       <c r="G3">
-        <v>0.2566298157049403</v>
+        <v>0.0008084289801115752</v>
       </c>
       <c r="H3">
-        <v>0.5493939455773003</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5028407890948543</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3853350532475588</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8451133760706426</v>
       </c>
       <c r="L3">
-        <v>1.557602198546064</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.211580930664297</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.922800503204655</v>
+        <v>2.698341068886577</v>
       </c>
       <c r="C4">
-        <v>0.5217349744733042</v>
+        <v>0.6891752831029407</v>
       </c>
       <c r="D4">
-        <v>0.006237939395932202</v>
+        <v>0.0583608260997508</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9948452337909117</v>
+        <v>2.506223575039769</v>
       </c>
       <c r="G4">
-        <v>0.2348087807300416</v>
+        <v>0.0008145210512124842</v>
       </c>
       <c r="H4">
-        <v>0.5113452525681197</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4758440322984256</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3535381367014736</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7655581235346318</v>
       </c>
       <c r="L4">
-        <v>1.396738103676114</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.231528142844866</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.798004215071103</v>
+        <v>2.586707626848579</v>
       </c>
       <c r="C5">
-        <v>0.5006473037498154</v>
+        <v>0.6594952852493918</v>
       </c>
       <c r="D5">
-        <v>0.006524479830124719</v>
+        <v>0.05614130476804746</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9613199433987774</v>
+        <v>2.442895638078156</v>
       </c>
       <c r="G5">
-        <v>0.2261473179306464</v>
+        <v>0.0008170407406444404</v>
       </c>
       <c r="H5">
-        <v>0.4963264024995553</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4653985502438758</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3407895744280722</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7335062757404671</v>
       </c>
       <c r="L5">
-        <v>1.332248050961496</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.240159797184106</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.77731936413943</v>
+        <v>2.568243013361212</v>
       </c>
       <c r="C6">
-        <v>0.4971490016093867</v>
+        <v>0.6545858280589982</v>
       </c>
       <c r="D6">
-        <v>0.006572736771549792</v>
+        <v>0.05577374766740917</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.955803132582119</v>
+        <v>2.432470012624236</v>
       </c>
       <c r="G6">
-        <v>0.2247221773252335</v>
+        <v>0.0008174614402108277</v>
       </c>
       <c r="H6">
-        <v>0.4938602751498351</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4636959004019729</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3386845057835899</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.7282046773027062</v>
       </c>
       <c r="L6">
-        <v>1.321598033959518</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.241622479702862</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.921114851614448</v>
+        <v>2.696830593879042</v>
       </c>
       <c r="C7">
-        <v>0.5214503467221618</v>
+        <v>0.6887737089017492</v>
       </c>
       <c r="D7">
-        <v>0.006241757565845774</v>
+        <v>0.05833082485708019</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9943896795835627</v>
+        <v>2.505363374260938</v>
       </c>
       <c r="G7">
-        <v>0.2346910735874559</v>
+        <v>0.000814554879268138</v>
       </c>
       <c r="H7">
-        <v>0.5111408085119535</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4757009904210605</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3533653956252039</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7651244465168361</v>
       </c>
       <c r="L7">
-        <v>1.395864324520247</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.231642560319941</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.562155072097198</v>
+        <v>3.276069665395767</v>
       </c>
       <c r="C8">
-        <v>0.6292952986705416</v>
+        <v>0.8427612507886693</v>
       </c>
       <c r="D8">
-        <v>0.00488912349726256</v>
+        <v>0.06977539850162628</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.172683960261608</v>
+        <v>2.841335279296175</v>
       </c>
       <c r="G8">
-        <v>0.2807902162080893</v>
+        <v>0.0008020484716274063</v>
       </c>
       <c r="H8">
-        <v>0.5918234592438978</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5337283091457579</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4200607391647111</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9314265595361633</v>
       </c>
       <c r="L8">
-        <v>1.733484197034798</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.192114109450202</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.854341437826179</v>
+        <v>4.469123823329141</v>
       </c>
       <c r="C9">
-        <v>0.8443889942584235</v>
+        <v>1.160138611144475</v>
       </c>
       <c r="D9">
-        <v>0.002734523606102712</v>
+        <v>0.09297763755644439</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.559366325732483</v>
+        <v>3.565196584718279</v>
       </c>
       <c r="G9">
-        <v>0.3810410051454483</v>
+        <v>0.0007785004304716977</v>
       </c>
       <c r="H9">
-        <v>0.7703094257186933</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6703915021616211</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5598534206266379</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.274003951152622</v>
       </c>
       <c r="L9">
-        <v>2.447124803379893</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.133412136672135</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.838523845782049</v>
+        <v>5.397002039001734</v>
       </c>
       <c r="C10">
-        <v>1.006193949583405</v>
+        <v>1.407417671984774</v>
       </c>
       <c r="D10">
-        <v>0.001588417951579046</v>
+        <v>0.1106919293996782</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.875314927859691</v>
+        <v>4.151874258321129</v>
       </c>
       <c r="G10">
-        <v>0.4632680679016232</v>
+        <v>0.0007616044694154536</v>
       </c>
       <c r="H10">
-        <v>0.9187178737553268</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.790086534615547</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6704441367327121</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.54055303511106</v>
       </c>
       <c r="L10">
-        <v>3.022034393921729</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.10466402611263</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.297477036194095</v>
+        <v>5.834675435435202</v>
       </c>
       <c r="C11">
-        <v>1.08103439131753</v>
+        <v>1.524240734998045</v>
       </c>
       <c r="D11">
-        <v>0.001200971347569357</v>
+        <v>0.118950259563789</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.028479403708076</v>
+        <v>4.434758240464532</v>
       </c>
       <c r="G11">
-        <v>0.5032358464122098</v>
+        <v>0.0007539553025030652</v>
       </c>
       <c r="H11">
-        <v>0.9913224393647369</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8501896690767623</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7231110060017301</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.666331232803614</v>
       </c>
       <c r="L11">
-        <v>3.300130865657664</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.095492547506325</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.473259972580877</v>
+        <v>6.003090155354585</v>
       </c>
       <c r="C12">
-        <v>1.109591897219588</v>
+        <v>1.569228918930548</v>
       </c>
       <c r="D12">
-        <v>0.001077750017174139</v>
+        <v>0.1221116546473979</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.088091350327929</v>
+        <v>4.544587679994947</v>
       </c>
       <c r="G12">
-        <v>0.5188102846515363</v>
+        <v>0.0007510590486994866</v>
       </c>
       <c r="H12">
-        <v>1.01968459191329</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8739119235511623</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7434582730993071</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.714739576814765</v>
       </c>
       <c r="L12">
-        <v>3.408422150675648</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.092660354116418</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.435306935033793</v>
+        <v>5.966692215222565</v>
       </c>
       <c r="C13">
-        <v>1.103431183070853</v>
+        <v>1.559504313263233</v>
       </c>
       <c r="D13">
-        <v>0.001103164671722112</v>
+        <v>0.121429177851283</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.075176601683111</v>
+        <v>4.5208063296663</v>
       </c>
       <c r="G13">
-        <v>0.5154352292687037</v>
+        <v>0.0007516828827624488</v>
       </c>
       <c r="H13">
-        <v>1.013535234731734</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8687574150624471</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7390570395528755</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.704277058813872</v>
       </c>
       <c r="L13">
-        <v>3.384955950580149</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.093240410827363</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.311896605253253</v>
+        <v>5.848474595958976</v>
       </c>
       <c r="C14">
-        <v>1.083379237706509</v>
+        <v>1.527926110952819</v>
       </c>
       <c r="D14">
-        <v>0.001190335125814457</v>
+        <v>0.1192096311574602</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.033349784346541</v>
+        <v>4.443737144323649</v>
       </c>
       <c r="G14">
-        <v>0.5045079022979309</v>
+        <v>0.0007537170509791909</v>
       </c>
       <c r="H14">
-        <v>0.9936375379121642</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8521210650945861</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7247764947332342</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.670297395194254</v>
       </c>
       <c r="L14">
-        <v>3.30897634123167</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.095246196538312</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.236575194140471</v>
+        <v>5.776425758341645</v>
       </c>
       <c r="C15">
-        <v>1.07112637879419</v>
+        <v>1.508685318878861</v>
       </c>
       <c r="D15">
-        <v>0.001246932064394635</v>
+        <v>0.1178547160409948</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.007947915401871</v>
+        <v>4.396895838344165</v>
       </c>
       <c r="G15">
-        <v>0.4978741682422623</v>
+        <v>0.000754962917685347</v>
       </c>
       <c r="H15">
-        <v>0.9815671768630096</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8420610865207507</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7160838846015167</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.649589473781845</v>
       </c>
       <c r="L15">
-        <v>3.262845222733119</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.09656083158049</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.80878658272934</v>
+        <v>5.368748302415838</v>
       </c>
       <c r="C16">
-        <v>1.001331046463889</v>
+        <v>1.399880576160797</v>
       </c>
       <c r="D16">
-        <v>0.001616774070950733</v>
+        <v>0.1101566936886655</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.865515939998943</v>
+        <v>4.133742370157307</v>
       </c>
       <c r="G16">
-        <v>0.4607134250407654</v>
+        <v>0.0007621046944713162</v>
       </c>
       <c r="H16">
-        <v>0.9140865538754923</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7862845774549143</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6670549522466587</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.532434666694712</v>
       </c>
       <c r="L16">
-        <v>3.004241692117404</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.105348476961908</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.549475086140205</v>
+        <v>5.122930746954751</v>
       </c>
       <c r="C17">
-        <v>0.9588564896622529</v>
+        <v>1.334326216417367</v>
       </c>
       <c r="D17">
-        <v>0.001880686387426778</v>
+        <v>0.1054890024493886</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.780723316461646</v>
+        <v>3.976673646469806</v>
       </c>
       <c r="G17">
-        <v>0.4386194464208302</v>
+        <v>0.0007664920853712202</v>
       </c>
       <c r="H17">
-        <v>0.8740831463562415</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.7536135040933729</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6376239089957778</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.461807602611927</v>
       </c>
       <c r="L17">
-        <v>2.850225360176978</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.111792206130474</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.401358578187455</v>
+        <v>4.982979219024855</v>
       </c>
       <c r="C18">
-        <v>0.9345397807286417</v>
+        <v>1.297020381635775</v>
       </c>
       <c r="D18">
-        <v>0.002044784164821678</v>
+        <v>0.1028227274783831</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.732823562124821</v>
+        <v>3.887810137551753</v>
       </c>
       <c r="G18">
-        <v>0.4261478250040653</v>
+        <v>0.0007690194094714041</v>
       </c>
       <c r="H18">
-        <v>0.851544182578607</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7353436899721686</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6209135389134275</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.421601776076557</v>
       </c>
       <c r="L18">
-        <v>2.76315572947388</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.115860701239995</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.351375999460174</v>
+        <v>4.935828500113416</v>
       </c>
       <c r="C19">
-        <v>0.9263249445081385</v>
+        <v>1.284454324138949</v>
       </c>
       <c r="D19">
-        <v>0.002102343780919114</v>
+        <v>0.1019229922678306</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.716748028643508</v>
+        <v>3.857965036617287</v>
       </c>
       <c r="G19">
-        <v>0.4219637617482874</v>
+        <v>0.000769875912135004</v>
       </c>
       <c r="H19">
-        <v>0.8439898302084856</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.729243328720969</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6152912742234236</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.408056811686194</v>
       </c>
       <c r="L19">
-        <v>2.733919793156403</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.117298233485101</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.576969895152899</v>
+        <v>5.148946855049473</v>
       </c>
       <c r="C20">
-        <v>0.963365959786131</v>
+        <v>1.341262413582626</v>
       </c>
       <c r="D20">
-        <v>0.001851291542672939</v>
+        <v>0.1059839395697821</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.789657817142484</v>
+        <v>3.993238149262851</v>
       </c>
       <c r="G20">
-        <v>0.4409464627401007</v>
+        <v>0.0007660246791113585</v>
       </c>
       <c r="H20">
-        <v>0.8782920321721264</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7570364025862517</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6407339419116909</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.469281952762202</v>
       </c>
       <c r="L20">
-        <v>2.866459798857704</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.111068238421652</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.348087976964734</v>
+        <v>5.883121470435469</v>
       </c>
       <c r="C21">
-        <v>1.089262746001197</v>
+        <v>1.537179929128399</v>
       </c>
       <c r="D21">
-        <v>0.001164054637952994</v>
+        <v>0.1198605918694966</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.045589326218462</v>
+        <v>4.466297177795269</v>
       </c>
       <c r="G21">
-        <v>0.5077049629928752</v>
+        <v>0.0007531196016197281</v>
       </c>
       <c r="H21">
-        <v>0.9994571965881107</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8569801088659545</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7289595203949659</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.680255778461898</v>
       </c>
       <c r="L21">
-        <v>3.331206966494506</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.094638958773302</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.863867473793277</v>
+        <v>6.378810470079827</v>
       </c>
       <c r="C22">
-        <v>1.172831384171843</v>
+        <v>1.669669055698591</v>
       </c>
       <c r="D22">
-        <v>0.0008546031204819116</v>
+        <v>0.1291319760399148</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.222404900965088</v>
+        <v>4.791489817354858</v>
       </c>
       <c r="G22">
-        <v>0.5539404747940466</v>
+        <v>0.0007446843185995049</v>
       </c>
       <c r="H22">
-        <v>1.083789835336717</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9280007150927787</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7890098976866824</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.822755103307458</v>
       </c>
       <c r="L22">
-        <v>3.652719126985133</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>1.087683801078001</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.587364240440081</v>
+        <v>6.112636277527258</v>
       </c>
       <c r="C23">
-        <v>1.128096796106604</v>
+        <v>1.598502678310808</v>
       </c>
       <c r="D23">
-        <v>0.001005305863016837</v>
+        <v>0.124163145879848</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.127064363835743</v>
+        <v>4.616309733117532</v>
       </c>
       <c r="G23">
-        <v>0.5289982569228755</v>
+        <v>0.0007491883532659346</v>
       </c>
       <c r="H23">
-        <v>1.038257360469316</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8895167583158923</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7567170041209863</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.746229968278286</v>
       </c>
       <c r="L23">
-        <v>3.479257991848357</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.091020015512868</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.564536512903771</v>
+        <v>5.137180730366481</v>
       </c>
       <c r="C24">
-        <v>0.9613269120557391</v>
+        <v>1.338125377513165</v>
       </c>
       <c r="D24">
-        <v>0.001864542725323659</v>
+        <v>0.1057601251842044</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.785615904634781</v>
+        <v>3.985744890202341</v>
       </c>
       <c r="G24">
-        <v>0.4398937058931551</v>
+        <v>0.0007662359775134499</v>
       </c>
       <c r="H24">
-        <v>0.8763877735063659</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7554873225248855</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6393272468547195</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.465901566875317</v>
       </c>
       <c r="L24">
-        <v>2.859115653767901</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.111394416542964</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.4997473371767</v>
+        <v>4.138683216008189</v>
       </c>
       <c r="C25">
-        <v>0.7856629071207806</v>
+        <v>1.072183635352815</v>
       </c>
       <c r="D25">
-        <v>0.00325189604753362</v>
+        <v>0.08660005431924134</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.449915679286434</v>
+        <v>3.360966572527445</v>
       </c>
       <c r="G25">
-        <v>0.35262340577016</v>
+        <v>0.0007847844051170659</v>
       </c>
       <c r="H25">
-        <v>0.7193897311205859</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6304679696925533</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5208446078017772</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.179107389585198</v>
       </c>
       <c r="L25">
-        <v>2.246782516765009</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.147002719277239</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.436346245358891</v>
+        <v>1.036362037626645</v>
       </c>
       <c r="C2">
-        <v>0.8853742034845027</v>
+        <v>0.1394073590602041</v>
       </c>
       <c r="D2">
-        <v>0.07292103646277326</v>
+        <v>0.06851933456533743</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.936272219815237</v>
+        <v>0.5978504982012396</v>
       </c>
       <c r="G2">
-        <v>0.0007987322265592758</v>
+        <v>0.0008135887948324066</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4386633486503513</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.977443082853398</v>
+        <v>0.8265323600134309</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2188491400207369</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2464359578961854</v>
       </c>
       <c r="N2">
-        <v>1.182582767436855</v>
+        <v>0.9658790742293952</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.856123767379188</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.975434149727278</v>
+        <v>0.9026613916311703</v>
       </c>
       <c r="C3">
-        <v>0.7628389646520475</v>
+        <v>0.1398883142340779</v>
       </c>
       <c r="D3">
-        <v>0.06385048816515848</v>
+        <v>0.06298139743144304</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.665487873268788</v>
+        <v>0.5715216040550501</v>
       </c>
       <c r="G3">
-        <v>0.0008084289801115752</v>
+        <v>0.0008171398386167639</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3853350532475588</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8451133760706426</v>
+        <v>0.719208126917195</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1998052992618611</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2169131158643225</v>
       </c>
       <c r="N3">
-        <v>1.211580930664297</v>
+        <v>1.010268545997363</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.816315259067267</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.698341068886577</v>
+        <v>0.8209687358233566</v>
       </c>
       <c r="C4">
-        <v>0.6891752831029407</v>
+        <v>0.1402213863481911</v>
       </c>
       <c r="D4">
-        <v>0.0583608260997508</v>
+        <v>0.05956365324792046</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.506223575039769</v>
+        <v>0.5563422212218185</v>
       </c>
       <c r="G4">
-        <v>0.0008145210512124842</v>
+        <v>0.0008193958603095104</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3535381367014736</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7655581235346318</v>
+        <v>0.6533953896848885</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1883628523321192</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1989473807688853</v>
       </c>
       <c r="N4">
-        <v>1.231528142844866</v>
+        <v>1.038689200122104</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.795054400466654</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.586707626848579</v>
+        <v>0.7877654122099216</v>
       </c>
       <c r="C5">
-        <v>0.6594952852493918</v>
+        <v>0.1403665907856073</v>
       </c>
       <c r="D5">
-        <v>0.05614130476804746</v>
+        <v>0.05816629508497329</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.442895638078156</v>
+        <v>0.5503930834253978</v>
       </c>
       <c r="G5">
-        <v>0.0008170407406444404</v>
+        <v>0.000820334522697053</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3407895744280722</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7335062757404671</v>
+        <v>0.6265882575715693</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1837592155203538</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1916630813108959</v>
       </c>
       <c r="N5">
-        <v>1.240159797184106</v>
+        <v>1.050557644424485</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.787157177985094</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.568243013361212</v>
+        <v>0.7822569042647274</v>
       </c>
       <c r="C6">
-        <v>0.6545858280589982</v>
+        <v>0.140391273583468</v>
       </c>
       <c r="D6">
-        <v>0.05577374766740917</v>
+        <v>0.0579339808943331</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.432470012624236</v>
+        <v>0.549419195788758</v>
       </c>
       <c r="G6">
-        <v>0.0008174614402108277</v>
+        <v>0.00082049156167136</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3386845057835899</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7282046773027062</v>
+        <v>0.6221374237402699</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1829982575552123</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1904556517467348</v>
       </c>
       <c r="N6">
-        <v>1.241622479702862</v>
+        <v>1.052545535502471</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.785891214915139</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.696830593879042</v>
+        <v>0.8205206088952082</v>
       </c>
       <c r="C7">
-        <v>0.6887737089017492</v>
+        <v>0.1402233062874707</v>
       </c>
       <c r="D7">
-        <v>0.05833082485708019</v>
+        <v>0.05954482689006824</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.505363374260938</v>
+        <v>0.5562610459926987</v>
       </c>
       <c r="G7">
-        <v>0.000814554879268138</v>
+        <v>0.000819408440963539</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3533653956252039</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7651244465168361</v>
+        <v>0.653033822205046</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1883005309913557</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1988489975845553</v>
       </c>
       <c r="N7">
-        <v>1.231642560319941</v>
+        <v>1.038848108905643</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.794944834128742</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.276069665395767</v>
+        <v>0.9901706377278856</v>
       </c>
       <c r="C8">
-        <v>0.8427612507886693</v>
+        <v>0.1395653405829869</v>
       </c>
       <c r="D8">
-        <v>0.06977539850162628</v>
+        <v>0.06661333535284086</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.841335279296175</v>
+        <v>0.5885604071789601</v>
       </c>
       <c r="G8">
-        <v>0.0008020484716274063</v>
+        <v>0.0008147976673211748</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4200607391647111</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9314265595361633</v>
+        <v>0.7895036349404734</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2122285064077687</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2362206874641757</v>
       </c>
       <c r="N8">
-        <v>1.192114109450202</v>
+        <v>0.9809388628017075</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.841716874853233</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.469123823329141</v>
+        <v>1.32668738312492</v>
       </c>
       <c r="C9">
-        <v>1.160138611144475</v>
+        <v>0.1385759049537612</v>
       </c>
       <c r="D9">
-        <v>0.09297763755644439</v>
+        <v>0.08034734671297628</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.565196584718279</v>
+        <v>0.6602775674447585</v>
       </c>
       <c r="G9">
-        <v>0.0007785004304716977</v>
+        <v>0.0008063426329690649</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5598534206266379</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.274003951152622</v>
+        <v>1.058246118940247</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2613192424927604</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3109667295841732</v>
       </c>
       <c r="N9">
-        <v>1.133412136672135</v>
+        <v>0.8769175770163731</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.960269357191038</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.397002039001734</v>
+        <v>1.577255065135887</v>
       </c>
       <c r="C10">
-        <v>1.407417671984774</v>
+        <v>0.1380344080245131</v>
       </c>
       <c r="D10">
-        <v>0.1106919293996782</v>
+        <v>0.09037709229908586</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.151874258321129</v>
+        <v>0.718885684007553</v>
       </c>
       <c r="G10">
-        <v>0.0007616044694154536</v>
+        <v>0.000800468265313492</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6704441367327121</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.54055303511106</v>
+        <v>1.257062913021798</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.298974950914527</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3670414544505576</v>
       </c>
       <c r="N10">
-        <v>1.10466402611263</v>
+        <v>0.8067314523498048</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.066064944101925</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.834675435435202</v>
+        <v>1.692203579367401</v>
       </c>
       <c r="C11">
-        <v>1.524240734998045</v>
+        <v>0.1378288947964847</v>
       </c>
       <c r="D11">
-        <v>0.118950259563789</v>
+        <v>0.09493074922384181</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.434758240464532</v>
+        <v>0.747024283002574</v>
       </c>
       <c r="G11">
-        <v>0.0007539553025030652</v>
+        <v>0.000797864480496394</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7231110060017301</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.666331232803614</v>
+        <v>1.347971356700782</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3165135958260237</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3928666383980044</v>
       </c>
       <c r="N11">
-        <v>1.095492547506325</v>
+        <v>0.7762565666907228</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.118806473566934</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.003090155354585</v>
+        <v>1.735890769153769</v>
       </c>
       <c r="C12">
-        <v>1.569228918930548</v>
+        <v>0.137756996521361</v>
       </c>
       <c r="D12">
-        <v>0.1221116546473979</v>
+        <v>0.09665415249605758</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.544587679994947</v>
+        <v>0.757909042769711</v>
       </c>
       <c r="G12">
-        <v>0.0007510590486994866</v>
+        <v>0.0007968879411980015</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7434582730993071</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.714739576814765</v>
+        <v>1.382477224753956</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3232193627867872</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.4026970445654214</v>
       </c>
       <c r="N12">
-        <v>1.092660354116418</v>
+        <v>0.7649345772140954</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.139491088193608</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.966692215222565</v>
+        <v>1.726474559529748</v>
       </c>
       <c r="C13">
-        <v>1.559504313263233</v>
+        <v>0.1377722166114097</v>
       </c>
       <c r="D13">
-        <v>0.121429177851283</v>
+        <v>0.09628302456609106</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.5208063296663</v>
+        <v>0.7555543378244352</v>
       </c>
       <c r="G13">
-        <v>0.0007516828827624488</v>
+        <v>0.0007970978422347564</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7390570395528755</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.704277058813872</v>
+        <v>1.375041943397491</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3217722068992259</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.400577533012104</v>
       </c>
       <c r="N13">
-        <v>1.093240410827363</v>
+        <v>0.767363112808054</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.135003780972966</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.848474595958976</v>
+        <v>1.695794450720285</v>
       </c>
       <c r="C14">
-        <v>1.527926110952819</v>
+        <v>0.1378228605878462</v>
       </c>
       <c r="D14">
-        <v>0.1192096311574602</v>
+        <v>0.09507255216430366</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.443737144323649</v>
+        <v>0.7479150832561174</v>
       </c>
       <c r="G14">
-        <v>0.0007537170509791909</v>
+        <v>0.0007977839527877064</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7247764947332342</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.670297395194254</v>
+        <v>1.350808472774844</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3170639627984855</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3936743377648071</v>
       </c>
       <c r="N14">
-        <v>1.095246196538312</v>
+        <v>0.775320671964808</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.120493636686973</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.776425758341645</v>
+        <v>1.677023282131131</v>
       </c>
       <c r="C15">
-        <v>1.508685318878861</v>
+        <v>0.137854654894241</v>
       </c>
       <c r="D15">
-        <v>0.1178547160409948</v>
+        <v>0.09433098654339034</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.396895838344165</v>
+        <v>0.7432661968295946</v>
       </c>
       <c r="G15">
-        <v>0.000754962917685347</v>
+        <v>0.000798205434991243</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7160838846015167</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.649589473781845</v>
+        <v>1.33597572436824</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3141885645927545</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3894527372607399</v>
       </c>
       <c r="N15">
-        <v>1.09656083158049</v>
+        <v>0.7802236054961202</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.111700057498069</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.368748302415838</v>
+        <v>1.5697639914261</v>
       </c>
       <c r="C16">
-        <v>1.399880576160797</v>
+        <v>0.1380486647280108</v>
       </c>
       <c r="D16">
-        <v>0.1101566936886655</v>
+        <v>0.0900793470439325</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.133742370157307</v>
+        <v>0.7170779042847713</v>
       </c>
       <c r="G16">
-        <v>0.0007621046944713162</v>
+        <v>0.0008006397740396192</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6670549522466587</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.532434666694712</v>
+        <v>1.251132364876696</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2978374461403348</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3653605450512671</v>
       </c>
       <c r="N16">
-        <v>1.105348476961908</v>
+        <v>0.8087530739730138</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.062715131043944</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.122930746954751</v>
+        <v>1.504224643698279</v>
       </c>
       <c r="C17">
-        <v>1.334326216417367</v>
+        <v>0.1381781749229987</v>
       </c>
       <c r="D17">
-        <v>0.1054890024493886</v>
+        <v>0.08746903637153736</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.976673646469806</v>
+        <v>0.7014022813724168</v>
       </c>
       <c r="G17">
-        <v>0.0007664920853712202</v>
+        <v>0.0008021504334739464</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6376239089957778</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.461807602611927</v>
+        <v>1.19921253457025</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2879150668612454</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3506655997803563</v>
       </c>
       <c r="N17">
-        <v>1.111792206130474</v>
+        <v>0.8266335420903577</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.033880206523975</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.982979219024855</v>
+        <v>1.466617602389562</v>
       </c>
       <c r="C18">
-        <v>1.297020381635775</v>
+        <v>0.1382565038309806</v>
       </c>
       <c r="D18">
-        <v>0.1028227274783831</v>
+        <v>0.08596679461322765</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.887810137551753</v>
+        <v>0.6925240742226251</v>
       </c>
       <c r="G18">
-        <v>0.0007690194094714041</v>
+        <v>0.0008030257965237894</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6209135389134275</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.421601776076557</v>
+        <v>1.169392568515065</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2822461142074673</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3422428997324616</v>
       </c>
       <c r="N18">
-        <v>1.115860701239995</v>
+        <v>0.8370541033478798</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.017726349297135</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.935828500113416</v>
+        <v>1.453899279846411</v>
       </c>
       <c r="C19">
-        <v>1.284454324138949</v>
+        <v>0.1382836822654347</v>
       </c>
       <c r="D19">
-        <v>0.1019229922678306</v>
+        <v>0.08545800435246775</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.857965036617287</v>
+        <v>0.6895412718893539</v>
       </c>
       <c r="G19">
-        <v>0.000769875912135004</v>
+        <v>0.0008033233025521642</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6152912742234236</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.408056811686194</v>
+        <v>1.159303010403448</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2803330935187631</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3393960148625084</v>
       </c>
       <c r="N19">
-        <v>1.117298233485101</v>
+        <v>0.8406054453435683</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.012329554875635</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.148946855049473</v>
+        <v>1.511192019628822</v>
       </c>
       <c r="C20">
-        <v>1.341262413582626</v>
+        <v>0.1381639907360217</v>
       </c>
       <c r="D20">
-        <v>0.1059839395697821</v>
+        <v>0.08774699519321416</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.993238149262851</v>
+        <v>0.7030565776740616</v>
       </c>
       <c r="G20">
-        <v>0.0007660246791113585</v>
+        <v>0.0008019889541493704</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6407339419116909</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.469281952762202</v>
+        <v>1.204734947059052</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.288967335510506</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3522268161032684</v>
       </c>
       <c r="N20">
-        <v>1.111068238421652</v>
+        <v>0.8247159757425493</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.036904758479295</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.883121470435469</v>
+        <v>1.704801469062517</v>
       </c>
       <c r="C21">
-        <v>1.537179929128399</v>
+        <v>0.1378078239360647</v>
       </c>
       <c r="D21">
-        <v>0.1198605918694966</v>
+        <v>0.09542812090089825</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.466297177795269</v>
+        <v>0.7501525552469985</v>
       </c>
       <c r="G21">
-        <v>0.0007531196016197281</v>
+        <v>0.0007975821720654233</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7289595203949659</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.680255778461898</v>
+        <v>1.357924122005358</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3184450987996996</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3957005449402118</v>
       </c>
       <c r="N21">
-        <v>1.094638958773302</v>
+        <v>0.7729773458220404</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.124735873061894</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.378810470079827</v>
+        <v>1.832271677143439</v>
       </c>
       <c r="C22">
-        <v>1.669669055698591</v>
+        <v>0.1376096158915416</v>
       </c>
       <c r="D22">
-        <v>0.1291319760399148</v>
+        <v>0.1004427007696123</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.791489817354858</v>
+        <v>0.7822775537364919</v>
       </c>
       <c r="G22">
-        <v>0.0007446843185995049</v>
+        <v>0.0007947570120222364</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7890098976866824</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.822755103307458</v>
+        <v>1.458520293850626</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3380878924799475</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.4244130298987088</v>
       </c>
       <c r="N22">
-        <v>1.087683801078001</v>
+        <v>0.7404396539517641</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.186316949297094</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.112636277527258</v>
+        <v>1.76414586069086</v>
       </c>
       <c r="C23">
-        <v>1.598502678310808</v>
+        <v>0.1377122199065397</v>
       </c>
       <c r="D23">
-        <v>0.124163145879848</v>
+        <v>0.09776671693101946</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.616309733117532</v>
+        <v>0.765002913294623</v>
       </c>
       <c r="G23">
-        <v>0.0007491883532659346</v>
+        <v>0.0007962599628459424</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7567170041209863</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.746229968278286</v>
+        <v>1.404781632883697</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3275677333807465</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.4090592964962312</v>
       </c>
       <c r="N23">
-        <v>1.091020015512868</v>
+        <v>0.7576856239684844</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.153050602244434</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.137180730366481</v>
+        <v>1.508041844952288</v>
       </c>
       <c r="C24">
-        <v>1.338125377513165</v>
+        <v>0.1381703913509682</v>
       </c>
       <c r="D24">
-        <v>0.1057601251842044</v>
+        <v>0.08762133482853329</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.985744890202341</v>
+        <v>0.7023082544529444</v>
       </c>
       <c r="G24">
-        <v>0.0007662359775134499</v>
+        <v>0.0008020619375632033</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6393272468547195</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.465901566875317</v>
+        <v>1.20223817372144</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2884914945163359</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3515209108120345</v>
       </c>
       <c r="N24">
-        <v>1.111394416542964</v>
+        <v>0.8255824694882232</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.035536042396302</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.138683216008189</v>
+        <v>1.235141573199343</v>
       </c>
       <c r="C25">
-        <v>1.072183635352815</v>
+        <v>0.1388111758813757</v>
       </c>
       <c r="D25">
-        <v>0.08660005431924134</v>
+        <v>0.07664386697143755</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.360966572527445</v>
+        <v>0.639898505439632</v>
       </c>
       <c r="G25">
-        <v>0.0007847844051170659</v>
+        <v>0.0008085691533001533</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5208446078017772</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.179107389585198</v>
+        <v>0.9853555109594083</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2477801683278358</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2905628603519332</v>
       </c>
       <c r="N25">
-        <v>1.147002719277239</v>
+        <v>0.9039948134212707</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.92509239566931</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.036362037626645</v>
+        <v>0.5941326565173313</v>
       </c>
       <c r="C2">
-        <v>0.1394073590602041</v>
+        <v>0.2434560285435161</v>
       </c>
       <c r="D2">
-        <v>0.06851933456533743</v>
+        <v>0.04876895091653211</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5978504982012396</v>
+        <v>1.003736934346527</v>
       </c>
       <c r="G2">
-        <v>0.0008135887948324066</v>
+        <v>0.002467271801632549</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8265323600134309</v>
+        <v>0.2772281472357463</v>
       </c>
       <c r="L2">
-        <v>0.2188491400207369</v>
+        <v>0.2860582655040389</v>
       </c>
       <c r="M2">
-        <v>0.2464359578961854</v>
+        <v>0.1971963222251176</v>
       </c>
       <c r="N2">
-        <v>0.9658790742293952</v>
+        <v>2.021994375149569</v>
       </c>
       <c r="O2">
-        <v>1.856123767379188</v>
+        <v>3.597219451174766</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9026613916311703</v>
+        <v>0.5580601044114815</v>
       </c>
       <c r="C3">
-        <v>0.1398883142340779</v>
+        <v>0.2437574110681808</v>
       </c>
       <c r="D3">
-        <v>0.06298139743144304</v>
+        <v>0.04677760021012034</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5715216040550501</v>
+        <v>1.00340876471985</v>
       </c>
       <c r="G3">
-        <v>0.0008171398386167639</v>
+        <v>0.002469647624118693</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.719208126917195</v>
+        <v>0.2453860685970994</v>
       </c>
       <c r="L3">
-        <v>0.1998052992618611</v>
+        <v>0.282656447314217</v>
       </c>
       <c r="M3">
-        <v>0.2169131158643225</v>
+        <v>0.1899200115138839</v>
       </c>
       <c r="N3">
-        <v>1.010268545997363</v>
+        <v>2.041163419150831</v>
       </c>
       <c r="O3">
-        <v>1.816315259067267</v>
+        <v>3.609649069998426</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8209687358233566</v>
+        <v>0.5361364545110803</v>
       </c>
       <c r="C4">
-        <v>0.1402213863481911</v>
+        <v>0.2439638758301292</v>
       </c>
       <c r="D4">
-        <v>0.05956365324792046</v>
+        <v>0.04553996981641717</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5563422212218185</v>
+        <v>1.003726203126639</v>
       </c>
       <c r="G4">
-        <v>0.0008193958603095104</v>
+        <v>0.002471185562136189</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6533953896848885</v>
+        <v>0.2258452604874179</v>
       </c>
       <c r="L4">
-        <v>0.1883628523321192</v>
+        <v>0.2807098957469378</v>
       </c>
       <c r="M4">
-        <v>0.1989473807688853</v>
+        <v>0.1855438203428221</v>
       </c>
       <c r="N4">
-        <v>1.038689200122104</v>
+        <v>2.053538382658555</v>
       </c>
       <c r="O4">
-        <v>1.795054400466654</v>
+        <v>3.618989955416666</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7877654122099216</v>
+        <v>0.5272595504620483</v>
       </c>
       <c r="C5">
-        <v>0.1403665907856073</v>
+        <v>0.2440534203269245</v>
       </c>
       <c r="D5">
-        <v>0.05816629508497329</v>
+        <v>0.04503189011922615</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5503930834253978</v>
+        <v>1.003986160025725</v>
       </c>
       <c r="G5">
-        <v>0.000820334522697053</v>
+        <v>0.002471832251263228</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6265882575715693</v>
+        <v>0.2178852355198302</v>
       </c>
       <c r="L5">
-        <v>0.1837592155203538</v>
+        <v>0.2799524877371482</v>
       </c>
       <c r="M5">
-        <v>0.1916630813108959</v>
+        <v>0.1837836144923664</v>
       </c>
       <c r="N5">
-        <v>1.050557644424485</v>
+        <v>2.058733461910812</v>
       </c>
       <c r="O5">
-        <v>1.787157177985094</v>
+        <v>3.62322646236349</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7822569042647274</v>
+        <v>0.5257890165565016</v>
       </c>
       <c r="C6">
-        <v>0.140391273583468</v>
+        <v>0.2440686164741557</v>
       </c>
       <c r="D6">
-        <v>0.0579339808943331</v>
+        <v>0.04494729885248461</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.549419195788758</v>
+        <v>1.004037216646545</v>
       </c>
       <c r="G6">
-        <v>0.00082049156167136</v>
+        <v>0.002471940841290463</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6221374237402699</v>
+        <v>0.2165636734468563</v>
       </c>
       <c r="L6">
-        <v>0.1829982575552123</v>
+        <v>0.2798288868355172</v>
       </c>
       <c r="M6">
-        <v>0.1904556517467348</v>
+        <v>0.1834927340593993</v>
       </c>
       <c r="N6">
-        <v>1.052545535502471</v>
+        <v>2.059605293018917</v>
       </c>
       <c r="O6">
-        <v>1.785891214915139</v>
+        <v>3.623955911137941</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8205206088952082</v>
+        <v>0.5360165052754269</v>
       </c>
       <c r="C7">
-        <v>0.1402233062874707</v>
+        <v>0.2439650615278168</v>
       </c>
       <c r="D7">
-        <v>0.05954482689006824</v>
+        <v>0.0455331327736701</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5562610459926987</v>
+        <v>1.003729180067168</v>
       </c>
       <c r="G7">
-        <v>0.000819408440963539</v>
+        <v>0.002471194202657997</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.653033822205046</v>
+        <v>0.2257378960655387</v>
       </c>
       <c r="L7">
-        <v>0.1883005309913557</v>
+        <v>0.2806995359128308</v>
       </c>
       <c r="M7">
-        <v>0.1988489975845553</v>
+        <v>0.185519987787945</v>
       </c>
       <c r="N7">
-        <v>1.038848108905643</v>
+        <v>2.053607829104944</v>
       </c>
       <c r="O7">
-        <v>1.794944834128742</v>
+        <v>3.619045348944326</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9901706377278856</v>
+        <v>0.5816484642720923</v>
       </c>
       <c r="C8">
-        <v>0.1395653405829869</v>
+        <v>0.2435555146725505</v>
       </c>
       <c r="D8">
-        <v>0.06661333535284086</v>
+        <v>0.04808544388711766</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5885604071789601</v>
+        <v>1.003516138108779</v>
       </c>
       <c r="G8">
-        <v>0.0008147976673211748</v>
+        <v>0.002468074587996768</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7895036349404734</v>
+        <v>0.2662470844843767</v>
       </c>
       <c r="L8">
-        <v>0.2122285064077687</v>
+        <v>0.2848558530717966</v>
       </c>
       <c r="M8">
-        <v>0.2362206874641757</v>
+        <v>0.1946685308208949</v>
       </c>
       <c r="N8">
-        <v>0.9809388628017075</v>
+        <v>2.028478291667076</v>
       </c>
       <c r="O8">
-        <v>1.841716874853233</v>
+        <v>3.601150624780047</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.32668738312492</v>
+        <v>0.6728979172624179</v>
       </c>
       <c r="C9">
-        <v>0.1385759049537612</v>
+        <v>0.242921291756506</v>
       </c>
       <c r="D9">
-        <v>0.08034734671297628</v>
+        <v>0.05297136549076953</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6602775674447585</v>
+        <v>1.007212432688014</v>
       </c>
       <c r="G9">
-        <v>0.0008063426329690649</v>
+        <v>0.002462582579860317</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.058246118940247</v>
+        <v>0.3457535561194902</v>
       </c>
       <c r="L9">
-        <v>0.2613192424927604</v>
+        <v>0.2941319209171098</v>
       </c>
       <c r="M9">
-        <v>0.3109667295841732</v>
+        <v>0.2133305255093276</v>
       </c>
       <c r="N9">
-        <v>0.8769175770163731</v>
+        <v>1.983998589243514</v>
       </c>
       <c r="O9">
-        <v>1.960269357191038</v>
+        <v>3.579610591232409</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.577255065135887</v>
+        <v>0.7409949578092494</v>
       </c>
       <c r="C10">
-        <v>0.1380344080245131</v>
+        <v>0.2425569454950214</v>
       </c>
       <c r="D10">
-        <v>0.09037709229908586</v>
+        <v>0.05648781641804135</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.718885684007553</v>
+        <v>1.012433383141229</v>
       </c>
       <c r="G10">
-        <v>0.000800468265313492</v>
+        <v>0.002458925229948214</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.257062913021798</v>
+        <v>0.4041951918953259</v>
       </c>
       <c r="L10">
-        <v>0.298974950914527</v>
+        <v>0.3016308351382833</v>
       </c>
       <c r="M10">
-        <v>0.3670414544505576</v>
+        <v>0.2274774003478441</v>
       </c>
       <c r="N10">
-        <v>0.8067314523498048</v>
+        <v>1.954241408580979</v>
       </c>
       <c r="O10">
-        <v>2.066064944101925</v>
+        <v>3.572038141485422</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.692203579367401</v>
+        <v>0.772199530679103</v>
       </c>
       <c r="C11">
-        <v>0.1378288947964847</v>
+        <v>0.242412978434956</v>
       </c>
       <c r="D11">
-        <v>0.09493074922384181</v>
+        <v>0.05807152786079683</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.747024283002574</v>
+        <v>1.015352064051839</v>
       </c>
       <c r="G11">
-        <v>0.000797864480496394</v>
+        <v>0.002457342614072717</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.347971356700782</v>
+        <v>0.4307854483213589</v>
       </c>
       <c r="L11">
-        <v>0.3165135958260237</v>
+        <v>0.3051903256867092</v>
       </c>
       <c r="M11">
-        <v>0.3928666383980044</v>
+        <v>0.234007061882842</v>
       </c>
       <c r="N11">
-        <v>0.7762565666907228</v>
+        <v>1.941337805208827</v>
       </c>
       <c r="O11">
-        <v>2.118806473566934</v>
+        <v>3.570383833278669</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.735890769153769</v>
+        <v>0.7840480284219211</v>
       </c>
       <c r="C12">
-        <v>0.137756996521361</v>
+        <v>0.2423615700673878</v>
       </c>
       <c r="D12">
-        <v>0.09665415249605758</v>
+        <v>0.05866892928939649</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.757909042769711</v>
+        <v>1.016535392748892</v>
       </c>
       <c r="G12">
-        <v>0.0007968879411980015</v>
+        <v>0.002456754925108576</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.382477224753956</v>
+        <v>0.440854842716476</v>
       </c>
       <c r="L12">
-        <v>0.3232193627867872</v>
+        <v>0.3065594620633334</v>
       </c>
       <c r="M12">
-        <v>0.4026970445654214</v>
+        <v>0.2364931160534098</v>
       </c>
       <c r="N12">
-        <v>0.7649345772140954</v>
+        <v>1.9365425638</v>
       </c>
       <c r="O12">
-        <v>2.139491088193608</v>
+        <v>3.570014670126966</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.726474559529748</v>
+        <v>0.7814948290127006</v>
       </c>
       <c r="C13">
-        <v>0.1377722166114097</v>
+        <v>0.2423725038691984</v>
       </c>
       <c r="D13">
-        <v>0.09628302456609106</v>
+        <v>0.05854037157197922</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7555543378244352</v>
+        <v>1.016277070181388</v>
       </c>
       <c r="G13">
-        <v>0.0007970978422347564</v>
+        <v>0.002456880978778179</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.375041943397491</v>
+        <v>0.4386862150332433</v>
       </c>
       <c r="L13">
-        <v>0.3217722068992259</v>
+        <v>0.3062636508481518</v>
       </c>
       <c r="M13">
-        <v>0.400577533012104</v>
+        <v>0.235957105322889</v>
       </c>
       <c r="N13">
-        <v>0.767363112808054</v>
+        <v>1.937571253732655</v>
       </c>
       <c r="O13">
-        <v>2.135003780972966</v>
+        <v>3.570082735880845</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.695794450720285</v>
+        <v>0.7731736758989598</v>
       </c>
       <c r="C14">
-        <v>0.1378228605878462</v>
+        <v>0.2424086868600952</v>
       </c>
       <c r="D14">
-        <v>0.09507255216430366</v>
+        <v>0.05812072298196824</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7479150832561174</v>
+        <v>1.015447852730048</v>
       </c>
       <c r="G14">
-        <v>0.0007977839527877064</v>
+        <v>0.002457294032050283</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.350808472774844</v>
+        <v>0.4316138612467455</v>
       </c>
       <c r="L14">
-        <v>0.3170639627984855</v>
+        <v>0.3053025402242753</v>
       </c>
       <c r="M14">
-        <v>0.3936743377648071</v>
+        <v>0.2342113229810181</v>
       </c>
       <c r="N14">
-        <v>0.775320671964808</v>
+        <v>1.940941472355524</v>
       </c>
       <c r="O14">
-        <v>2.120493636686973</v>
+        <v>3.570348306584691</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.677023282131131</v>
+        <v>0.7680808786072078</v>
       </c>
       <c r="C15">
-        <v>0.137854654894241</v>
+        <v>0.2424312541835292</v>
       </c>
       <c r="D15">
-        <v>0.09433098654339034</v>
+        <v>0.05786337382570395</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7432661968295946</v>
+        <v>1.014950099787427</v>
       </c>
       <c r="G15">
-        <v>0.000798205434991243</v>
+        <v>0.00245754854993677</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.33597572436824</v>
+        <v>0.4272818581715114</v>
       </c>
       <c r="L15">
-        <v>0.3141885645927545</v>
+        <v>0.3047165953212527</v>
       </c>
       <c r="M15">
-        <v>0.3894527372607399</v>
+        <v>0.2331437238151111</v>
       </c>
       <c r="N15">
-        <v>0.7802236054961202</v>
+        <v>1.94301769009744</v>
       </c>
       <c r="O15">
-        <v>2.111700057498069</v>
+        <v>3.570544477525601</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.5697639914261</v>
+        <v>0.7389601779157999</v>
       </c>
       <c r="C16">
-        <v>0.1380486647280108</v>
+        <v>0.2425667903394597</v>
       </c>
       <c r="D16">
-        <v>0.0900793470439325</v>
+        <v>0.05638399438708319</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7170779042847713</v>
+        <v>1.012253572503383</v>
       </c>
       <c r="G16">
-        <v>0.0008006397740396192</v>
+        <v>0.002459030285637588</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.251132364876696</v>
+        <v>0.4024575148335714</v>
       </c>
       <c r="L16">
-        <v>0.2978374461403348</v>
+        <v>0.301401189673399</v>
       </c>
       <c r="M16">
-        <v>0.3653605450512671</v>
+        <v>0.2270525556331791</v>
       </c>
       <c r="N16">
-        <v>0.8087530739730138</v>
+        <v>1.955097431759008</v>
       </c>
       <c r="O16">
-        <v>2.062715131043944</v>
+        <v>3.572182267618757</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.504224643698279</v>
+        <v>0.7211532396890732</v>
       </c>
       <c r="C17">
-        <v>0.1381781749229987</v>
+        <v>0.2426554986312475</v>
       </c>
       <c r="D17">
-        <v>0.08746903637153736</v>
+        <v>0.05547234370015275</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7014022813724168</v>
+        <v>1.010738518458922</v>
       </c>
       <c r="G17">
-        <v>0.0008021504334739464</v>
+        <v>0.002459960024239871</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.19921253457025</v>
+        <v>0.3872295042334599</v>
       </c>
       <c r="L17">
-        <v>0.2879150668612454</v>
+        <v>0.2994051985134547</v>
       </c>
       <c r="M17">
-        <v>0.3506655997803563</v>
+        <v>0.2233398502459423</v>
       </c>
       <c r="N17">
-        <v>0.8266335420903577</v>
+        <v>1.962670135631837</v>
       </c>
       <c r="O17">
-        <v>2.033880206523975</v>
+        <v>3.573645448120629</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.466617602389562</v>
+        <v>0.7109325528277282</v>
       </c>
       <c r="C18">
-        <v>0.1382565038309806</v>
+        <v>0.2427085722808755</v>
       </c>
       <c r="D18">
-        <v>0.08596679461322765</v>
+        <v>0.05494648743151487</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6925240742226251</v>
+        <v>1.009918275116483</v>
       </c>
       <c r="G18">
-        <v>0.0008030257965237894</v>
+        <v>0.002460502424964872</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.169392568515065</v>
+        <v>0.3784712404702475</v>
       </c>
       <c r="L18">
-        <v>0.2822461142074673</v>
+        <v>0.2982711107436131</v>
       </c>
       <c r="M18">
-        <v>0.3422428997324616</v>
+        <v>0.2212132724728733</v>
       </c>
       <c r="N18">
-        <v>0.8370541033478798</v>
+        <v>1.96708534146779</v>
       </c>
       <c r="O18">
-        <v>2.017726349297135</v>
+        <v>3.57465556574428</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.453899279846411</v>
+        <v>0.7074756971111071</v>
       </c>
       <c r="C19">
-        <v>0.1382836822654347</v>
+        <v>0.2427268950530745</v>
       </c>
       <c r="D19">
-        <v>0.08545800435246775</v>
+        <v>0.05476818481406553</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6895412718893539</v>
+        <v>1.009649346951157</v>
       </c>
       <c r="G19">
-        <v>0.0008033233025521642</v>
+        <v>0.00246068738605604</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.159303010403448</v>
+        <v>0.3755059401174492</v>
       </c>
       <c r="L19">
-        <v>0.2803330935187631</v>
+        <v>0.2978895269564532</v>
       </c>
       <c r="M19">
-        <v>0.3393960148625084</v>
+        <v>0.2204947775227808</v>
       </c>
       <c r="N19">
-        <v>0.8406054453435683</v>
+        <v>1.968590487350214</v>
       </c>
       <c r="O19">
-        <v>2.012329554875635</v>
+        <v>3.575026525587361</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.511192019628822</v>
+        <v>0.723046609074288</v>
       </c>
       <c r="C20">
-        <v>0.1381639907360217</v>
+        <v>0.2426458433768772</v>
       </c>
       <c r="D20">
-        <v>0.08774699519321416</v>
+        <v>0.05556954577389206</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7030565776740616</v>
+        <v>1.010894502691677</v>
       </c>
       <c r="G20">
-        <v>0.0008019889541493704</v>
+        <v>0.002459860261858275</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.204734947059052</v>
+        <v>0.3888505050599349</v>
       </c>
       <c r="L20">
-        <v>0.288967335510506</v>
+        <v>0.29961623158907</v>
       </c>
       <c r="M20">
-        <v>0.3522268161032684</v>
+        <v>0.2237341567737161</v>
       </c>
       <c r="N20">
-        <v>0.8247159757425493</v>
+        <v>1.961857841106308</v>
       </c>
       <c r="O20">
-        <v>2.036904758479295</v>
+        <v>3.573472248593617</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.704801469062517</v>
+        <v>0.7756169366874985</v>
       </c>
       <c r="C21">
-        <v>0.1378078239360647</v>
+        <v>0.2423979748445078</v>
       </c>
       <c r="D21">
-        <v>0.09542812090089825</v>
+        <v>0.05824404698216057</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7501525552469985</v>
+        <v>1.015689295424963</v>
       </c>
       <c r="G21">
-        <v>0.0007975821720654233</v>
+        <v>0.002457172393439739</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.357924122005358</v>
+        <v>0.4336911800928362</v>
       </c>
       <c r="L21">
-        <v>0.3184450987996996</v>
+        <v>0.3055842660196504</v>
       </c>
       <c r="M21">
-        <v>0.3957005449402118</v>
+        <v>0.2347237385804135</v>
       </c>
       <c r="N21">
-        <v>0.7729773458220404</v>
+        <v>1.939949085452444</v>
       </c>
       <c r="O21">
-        <v>2.124735873061894</v>
+        <v>3.570263320721381</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.832271677143439</v>
+        <v>0.8101609342707548</v>
       </c>
       <c r="C22">
-        <v>0.1376096158915416</v>
+        <v>0.2422540887529649</v>
       </c>
       <c r="D22">
-        <v>0.1004427007696123</v>
+        <v>0.05997847929962319</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7822775537364919</v>
+        <v>1.019278082568846</v>
       </c>
       <c r="G22">
-        <v>0.0007947570120222364</v>
+        <v>0.002455483385237434</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.458520293850626</v>
+        <v>0.4629983472077015</v>
       </c>
       <c r="L22">
-        <v>0.3380878924799475</v>
+        <v>0.3096084572796798</v>
       </c>
       <c r="M22">
-        <v>0.4244130298987088</v>
+        <v>0.2419841868154862</v>
       </c>
       <c r="N22">
-        <v>0.7404396539517641</v>
+        <v>1.926161309605433</v>
       </c>
       <c r="O22">
-        <v>2.186316949297094</v>
+        <v>3.569665687563543</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.76414586069086</v>
+        <v>0.7917073168787567</v>
       </c>
       <c r="C23">
-        <v>0.1377122199065397</v>
+        <v>0.2423292337669807</v>
       </c>
       <c r="D23">
-        <v>0.09776671693101946</v>
+        <v>0.0590540240121058</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.765002913294623</v>
+        <v>1.01732106566844</v>
       </c>
       <c r="G23">
-        <v>0.0007962599628459424</v>
+        <v>0.00245637866628523</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.404781632883697</v>
+        <v>0.4473566028313485</v>
       </c>
       <c r="L23">
-        <v>0.3275677333807465</v>
+        <v>0.3074493740249551</v>
       </c>
       <c r="M23">
-        <v>0.4090592964962312</v>
+        <v>0.2381020437290857</v>
       </c>
       <c r="N23">
-        <v>0.7576856239684844</v>
+        <v>1.933471518569725</v>
       </c>
       <c r="O23">
-        <v>2.153050602244434</v>
+        <v>3.569847501319515</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.508041844952288</v>
+        <v>0.7221905645259881</v>
       </c>
       <c r="C24">
-        <v>0.1381703913509682</v>
+        <v>0.2426502020557244</v>
       </c>
       <c r="D24">
-        <v>0.08762133482853329</v>
+        <v>0.05552560612206037</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7023082544529444</v>
+        <v>1.010823824032805</v>
       </c>
       <c r="G24">
-        <v>0.0008020619375632033</v>
+        <v>0.002459905339875358</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.20223817372144</v>
+        <v>0.3881176613849675</v>
       </c>
       <c r="L24">
-        <v>0.2884914945163359</v>
+        <v>0.2995207816849899</v>
       </c>
       <c r="M24">
-        <v>0.3515209108120345</v>
+        <v>0.2235558661567865</v>
       </c>
       <c r="N24">
-        <v>0.8255824694882232</v>
+        <v>1.96222488771325</v>
       </c>
       <c r="O24">
-        <v>2.035536042396302</v>
+        <v>3.573550025922543</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.235141573199343</v>
+        <v>0.6480256098870143</v>
       </c>
       <c r="C25">
-        <v>0.1388111758813757</v>
+        <v>0.2430749241266561</v>
       </c>
       <c r="D25">
-        <v>0.07664386697143755</v>
+        <v>0.05166241177751374</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.639898505439632</v>
+        <v>1.005772331589291</v>
       </c>
       <c r="G25">
-        <v>0.0008085691533001533</v>
+        <v>0.002464001730925614</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9853555109594083</v>
+        <v>0.3242390304662308</v>
       </c>
       <c r="L25">
-        <v>0.2477801683278358</v>
+        <v>0.2915022461205581</v>
       </c>
       <c r="M25">
-        <v>0.2905628603519332</v>
+        <v>0.2082051159760994</v>
       </c>
       <c r="N25">
-        <v>0.9039948134212707</v>
+        <v>1.99551812712056</v>
       </c>
       <c r="O25">
-        <v>1.92509239566931</v>
+        <v>3.583987825270697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5941326565173313</v>
+        <v>1.036362037626674</v>
       </c>
       <c r="C2">
-        <v>0.2434560285435161</v>
+        <v>0.1394073590602254</v>
       </c>
       <c r="D2">
-        <v>0.04876895091653211</v>
+        <v>0.06851933456545112</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.003736934346527</v>
+        <v>0.5978504982012396</v>
       </c>
       <c r="G2">
-        <v>0.002467271801632549</v>
+        <v>0.0008135887947382493</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2772281472357463</v>
+        <v>0.8265323600134593</v>
       </c>
       <c r="L2">
-        <v>0.2860582655040389</v>
+        <v>0.2188491400206942</v>
       </c>
       <c r="M2">
-        <v>0.1971963222251176</v>
+        <v>0.2464359578961854</v>
       </c>
       <c r="N2">
-        <v>2.021994375149569</v>
+        <v>0.9658790742293792</v>
       </c>
       <c r="O2">
-        <v>3.597219451174766</v>
+        <v>1.85612376737916</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5580601044114815</v>
+        <v>0.9026613916311987</v>
       </c>
       <c r="C3">
-        <v>0.2437574110681808</v>
+        <v>0.1398883142339891</v>
       </c>
       <c r="D3">
-        <v>0.04677760021012034</v>
+        <v>0.06298139743164199</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.00340876471985</v>
+        <v>0.5715216040550715</v>
       </c>
       <c r="G3">
-        <v>0.002469647624118693</v>
+        <v>0.0008171398386170256</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2453860685970994</v>
+        <v>0.7192081269171808</v>
       </c>
       <c r="L3">
-        <v>0.282656447314217</v>
+        <v>0.1998052992619037</v>
       </c>
       <c r="M3">
-        <v>0.1899200115138839</v>
+        <v>0.2169131158643225</v>
       </c>
       <c r="N3">
-        <v>2.041163419150831</v>
+        <v>1.01026854599737</v>
       </c>
       <c r="O3">
-        <v>3.609649069998426</v>
+        <v>1.816315259067267</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5361364545110803</v>
+        <v>0.8209687358233282</v>
       </c>
       <c r="C4">
-        <v>0.2439638758301292</v>
+        <v>0.1402213863481165</v>
       </c>
       <c r="D4">
-        <v>0.04553996981641717</v>
+        <v>0.05956365324780677</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.003726203126639</v>
+        <v>0.5563422212218398</v>
       </c>
       <c r="G4">
-        <v>0.002471185562136189</v>
+        <v>0.0008193958603884615</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2258452604874179</v>
+        <v>0.6533953896848459</v>
       </c>
       <c r="L4">
-        <v>0.2807098957469378</v>
+        <v>0.1883628523322614</v>
       </c>
       <c r="M4">
-        <v>0.1855438203428221</v>
+        <v>0.198947380768896</v>
       </c>
       <c r="N4">
-        <v>2.053538382658555</v>
+        <v>1.038689200122111</v>
       </c>
       <c r="O4">
-        <v>3.618989955416666</v>
+        <v>1.795054400466725</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5272595504620483</v>
+        <v>0.7877654122098647</v>
       </c>
       <c r="C5">
-        <v>0.2440534203269245</v>
+        <v>0.1403665907855149</v>
       </c>
       <c r="D5">
-        <v>0.04503189011922615</v>
+        <v>0.05816629508500171</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.003986160025725</v>
+        <v>0.5503930834254191</v>
       </c>
       <c r="G5">
-        <v>0.002471832251263228</v>
+        <v>0.0008203345226377445</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2178852355198302</v>
+        <v>0.6265882575715693</v>
       </c>
       <c r="L5">
-        <v>0.2799524877371482</v>
+        <v>0.1837592155203893</v>
       </c>
       <c r="M5">
-        <v>0.1837836144923664</v>
+        <v>0.1916630813109066</v>
       </c>
       <c r="N5">
-        <v>2.058733461910812</v>
+        <v>1.050557644424492</v>
       </c>
       <c r="O5">
-        <v>3.62322646236349</v>
+        <v>1.787157177985122</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5257890165565016</v>
+        <v>0.7822569042646705</v>
       </c>
       <c r="C6">
-        <v>0.2440686164741557</v>
+        <v>0.1403912735834787</v>
       </c>
       <c r="D6">
-        <v>0.04494729885248461</v>
+        <v>0.05793398089441126</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.004037216646545</v>
+        <v>0.549419195788758</v>
       </c>
       <c r="G6">
-        <v>0.002471940841290463</v>
+        <v>0.000820491561710435</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2165636734468563</v>
+        <v>0.6221374237403978</v>
       </c>
       <c r="L6">
-        <v>0.2798288868355172</v>
+        <v>0.1829982575552691</v>
       </c>
       <c r="M6">
-        <v>0.1834927340593993</v>
+        <v>0.1904556517467597</v>
       </c>
       <c r="N6">
-        <v>2.059605293018917</v>
+        <v>1.052545535502411</v>
       </c>
       <c r="O6">
-        <v>3.623955911137941</v>
+        <v>1.785891214915125</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5360165052754269</v>
+        <v>0.8205206088952082</v>
       </c>
       <c r="C7">
-        <v>0.2439650615278168</v>
+        <v>0.1402233062872291</v>
       </c>
       <c r="D7">
-        <v>0.0455331327736701</v>
+        <v>0.05954482688983376</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.003729180067168</v>
+        <v>0.5562610459926915</v>
       </c>
       <c r="G7">
-        <v>0.002471194202657997</v>
+        <v>0.0008194084409633576</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2257378960655387</v>
+        <v>0.6530338222051597</v>
       </c>
       <c r="L7">
-        <v>0.2806995359128308</v>
+        <v>0.1883005309913131</v>
       </c>
       <c r="M7">
-        <v>0.185519987787945</v>
+        <v>0.1988489975845447</v>
       </c>
       <c r="N7">
-        <v>2.053607829104944</v>
+        <v>1.038848108905642</v>
       </c>
       <c r="O7">
-        <v>3.619045348944326</v>
+        <v>1.794944834128742</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5816484642720923</v>
+        <v>0.990170637727914</v>
       </c>
       <c r="C8">
-        <v>0.2435555146725505</v>
+        <v>0.1395653405833954</v>
       </c>
       <c r="D8">
-        <v>0.04808544388711766</v>
+        <v>0.06661333535271297</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.003516138108779</v>
+        <v>0.5885604071789814</v>
       </c>
       <c r="G8">
-        <v>0.002468074587996768</v>
+        <v>0.0008147976673793183</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2662470844843767</v>
+        <v>0.7895036349405871</v>
       </c>
       <c r="L8">
-        <v>0.2848558530717966</v>
+        <v>0.2122285064077261</v>
       </c>
       <c r="M8">
-        <v>0.1946685308208949</v>
+        <v>0.2362206874641828</v>
       </c>
       <c r="N8">
-        <v>2.028478291667076</v>
+        <v>0.980938862801775</v>
       </c>
       <c r="O8">
-        <v>3.601150624780047</v>
+        <v>1.841716874853233</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6728979172624179</v>
+        <v>1.326687383124892</v>
       </c>
       <c r="C9">
-        <v>0.242921291756506</v>
+        <v>0.1385759049540098</v>
       </c>
       <c r="D9">
-        <v>0.05297136549076953</v>
+        <v>0.08034734671316812</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.007212432688014</v>
+        <v>0.6602775674447585</v>
       </c>
       <c r="G9">
-        <v>0.002462582579860317</v>
+        <v>0.0008063426329995571</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3457535561194902</v>
+        <v>1.058246118940275</v>
       </c>
       <c r="L9">
-        <v>0.2941319209171098</v>
+        <v>0.2613192424927462</v>
       </c>
       <c r="M9">
-        <v>0.2133305255093276</v>
+        <v>0.3109667295841803</v>
       </c>
       <c r="N9">
-        <v>1.983998589243514</v>
+        <v>0.8769175770163891</v>
       </c>
       <c r="O9">
-        <v>3.579610591232409</v>
+        <v>1.960269357191009</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7409949578092494</v>
+        <v>1.577255065135688</v>
       </c>
       <c r="C10">
-        <v>0.2425569454950214</v>
+        <v>0.1380344080246658</v>
       </c>
       <c r="D10">
-        <v>0.05648781641804135</v>
+        <v>0.09037709229909296</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.012433383141229</v>
+        <v>0.718885684007553</v>
       </c>
       <c r="G10">
-        <v>0.002458925229948214</v>
+        <v>0.0008004682653113507</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4041951918953259</v>
+        <v>1.257062913022025</v>
       </c>
       <c r="L10">
-        <v>0.3016308351382833</v>
+        <v>0.2989749509145412</v>
       </c>
       <c r="M10">
-        <v>0.2274774003478441</v>
+        <v>0.3670414544505505</v>
       </c>
       <c r="N10">
-        <v>1.954241408580979</v>
+        <v>0.8067314523497924</v>
       </c>
       <c r="O10">
-        <v>3.572038141485422</v>
+        <v>2.066064944101953</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.772199530679103</v>
+        <v>1.692203579367288</v>
       </c>
       <c r="C11">
-        <v>0.242412978434956</v>
+        <v>0.137828894796364</v>
       </c>
       <c r="D11">
-        <v>0.05807152786079683</v>
+        <v>0.09493074922367839</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.015352064051839</v>
+        <v>0.7470242830026024</v>
       </c>
       <c r="G11">
-        <v>0.002457342614072717</v>
+        <v>0.0007978644805227936</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4307854483213589</v>
+        <v>1.34797135670064</v>
       </c>
       <c r="L11">
-        <v>0.3051903256867092</v>
+        <v>0.3165135958260379</v>
       </c>
       <c r="M11">
-        <v>0.234007061882842</v>
+        <v>0.3928666383980115</v>
       </c>
       <c r="N11">
-        <v>1.941337805208827</v>
+        <v>0.7762565666907992</v>
       </c>
       <c r="O11">
-        <v>3.570383833278669</v>
+        <v>2.118806473566963</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7840480284219211</v>
+        <v>1.735890769153798</v>
       </c>
       <c r="C12">
-        <v>0.2423615700673878</v>
+        <v>0.137756996521361</v>
       </c>
       <c r="D12">
-        <v>0.05866892928939649</v>
+        <v>0.0966541524958231</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.016535392748892</v>
+        <v>0.757909042769711</v>
       </c>
       <c r="G12">
-        <v>0.002456754925108576</v>
+        <v>0.0007968879411992158</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.440854842716476</v>
+        <v>1.382477224753927</v>
       </c>
       <c r="L12">
-        <v>0.3065594620633334</v>
+        <v>0.3232193627866877</v>
       </c>
       <c r="M12">
-        <v>0.2364931160534098</v>
+        <v>0.4026970445654214</v>
       </c>
       <c r="N12">
-        <v>1.9365425638</v>
+        <v>0.7649345772140919</v>
       </c>
       <c r="O12">
-        <v>3.570014670126966</v>
+        <v>2.139491088193608</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7814948290127006</v>
+        <v>1.726474559529748</v>
       </c>
       <c r="C13">
-        <v>0.2423725038691984</v>
+        <v>0.1377722166114097</v>
       </c>
       <c r="D13">
-        <v>0.05854037157197922</v>
+        <v>0.09628302456609106</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.016277070181388</v>
+        <v>0.7555543378244352</v>
       </c>
       <c r="G13">
-        <v>0.002456880978778179</v>
+        <v>0.0007970978422344507</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4386862150332433</v>
+        <v>1.375041943397491</v>
       </c>
       <c r="L13">
-        <v>0.3062636508481518</v>
+        <v>0.3217722068992401</v>
       </c>
       <c r="M13">
-        <v>0.235957105322889</v>
+        <v>0.4005775330121111</v>
       </c>
       <c r="N13">
-        <v>1.937571253732655</v>
+        <v>0.7673631128080416</v>
       </c>
       <c r="O13">
-        <v>3.570082735880845</v>
+        <v>2.135003780972966</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7731736758989598</v>
+        <v>1.695794450720285</v>
       </c>
       <c r="C14">
-        <v>0.2424086868600952</v>
+        <v>0.1378228605877538</v>
       </c>
       <c r="D14">
-        <v>0.05812072298196824</v>
+        <v>0.0950725521643605</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.015447852730048</v>
+        <v>0.7479150832561174</v>
       </c>
       <c r="G14">
-        <v>0.002457294032050283</v>
+        <v>0.0007977839527862489</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4316138612467455</v>
+        <v>1.350808472774901</v>
       </c>
       <c r="L14">
-        <v>0.3053025402242753</v>
+        <v>0.3170639627984997</v>
       </c>
       <c r="M14">
-        <v>0.2342113229810181</v>
+        <v>0.3936743377648284</v>
       </c>
       <c r="N14">
-        <v>1.940941472355524</v>
+        <v>0.7753206719648116</v>
       </c>
       <c r="O14">
-        <v>3.570348306584691</v>
+        <v>2.12049363668703</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7680808786072078</v>
+        <v>1.677023282131017</v>
       </c>
       <c r="C15">
-        <v>0.2424312541835292</v>
+        <v>0.1378546548937791</v>
       </c>
       <c r="D15">
-        <v>0.05786337382570395</v>
+        <v>0.09433098654350403</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.014950099787427</v>
+        <v>0.7432661968295946</v>
       </c>
       <c r="G15">
-        <v>0.00245754854993677</v>
+        <v>0.0007982054349890709</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4272818581715114</v>
+        <v>1.335975724368183</v>
       </c>
       <c r="L15">
-        <v>0.3047165953212527</v>
+        <v>0.3141885645927402</v>
       </c>
       <c r="M15">
-        <v>0.2331437238151111</v>
+        <v>0.3894527372607399</v>
       </c>
       <c r="N15">
-        <v>1.94301769009744</v>
+        <v>0.7802236054961131</v>
       </c>
       <c r="O15">
-        <v>3.570544477525601</v>
+        <v>2.111700057498069</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7389601779157999</v>
+        <v>1.569763991426214</v>
       </c>
       <c r="C16">
-        <v>0.2425667903394597</v>
+        <v>0.1380486647281103</v>
       </c>
       <c r="D16">
-        <v>0.05638399438708319</v>
+        <v>0.09007934704404619</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.012253572503383</v>
+        <v>0.7170779042847713</v>
       </c>
       <c r="G16">
-        <v>0.002459030285637588</v>
+        <v>0.0008006397740726903</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4024575148335714</v>
+        <v>1.251132364876725</v>
       </c>
       <c r="L16">
-        <v>0.301401189673399</v>
+        <v>0.2978374461401785</v>
       </c>
       <c r="M16">
-        <v>0.2270525556331791</v>
+        <v>0.3653605450512529</v>
       </c>
       <c r="N16">
-        <v>1.955097431759008</v>
+        <v>0.8087530739729374</v>
       </c>
       <c r="O16">
-        <v>3.572182267618757</v>
+        <v>2.062715131043944</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7211532396890732</v>
+        <v>1.504224643698251</v>
       </c>
       <c r="C17">
-        <v>0.2426554986312475</v>
+        <v>0.1381781749230022</v>
       </c>
       <c r="D17">
-        <v>0.05547234370015275</v>
+        <v>0.08746903637141656</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.010738518458922</v>
+        <v>0.7014022813724168</v>
       </c>
       <c r="G17">
-        <v>0.002459960024239871</v>
+        <v>0.0008021504334481344</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3872295042334599</v>
+        <v>1.199212534570307</v>
       </c>
       <c r="L17">
-        <v>0.2994051985134547</v>
+        <v>0.2879150668612596</v>
       </c>
       <c r="M17">
-        <v>0.2233398502459423</v>
+        <v>0.3506655997803492</v>
       </c>
       <c r="N17">
-        <v>1.962670135631837</v>
+        <v>0.8266335420904003</v>
       </c>
       <c r="O17">
-        <v>3.573645448120629</v>
+        <v>2.033880206523918</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7109325528277282</v>
+        <v>1.466617602389732</v>
       </c>
       <c r="C18">
-        <v>0.2427085722808755</v>
+        <v>0.1382565038307355</v>
       </c>
       <c r="D18">
-        <v>0.05494648743151487</v>
+        <v>0.0859667946132916</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.009918275116483</v>
+        <v>0.6925240742226393</v>
       </c>
       <c r="G18">
-        <v>0.002460502424964872</v>
+        <v>0.0008030257965493397</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3784712404702475</v>
+        <v>1.169392568515093</v>
       </c>
       <c r="L18">
-        <v>0.2982711107436131</v>
+        <v>0.2822461142074957</v>
       </c>
       <c r="M18">
-        <v>0.2212132724728733</v>
+        <v>0.3422428997324545</v>
       </c>
       <c r="N18">
-        <v>1.96708534146779</v>
+        <v>0.8370541033478691</v>
       </c>
       <c r="O18">
-        <v>3.57465556574428</v>
+        <v>2.017726349297163</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7074756971111071</v>
+        <v>1.453899279846354</v>
       </c>
       <c r="C19">
-        <v>0.2427268950530745</v>
+        <v>0.1382836822654419</v>
       </c>
       <c r="D19">
-        <v>0.05476818481406553</v>
+        <v>0.0854580043525246</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.009649346951157</v>
+        <v>0.689541271889361</v>
       </c>
       <c r="G19">
-        <v>0.00246068738605604</v>
+        <v>0.0008033233025241393</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3755059401174492</v>
+        <v>1.159303010403335</v>
       </c>
       <c r="L19">
-        <v>0.2978895269564532</v>
+        <v>0.2803330935188058</v>
       </c>
       <c r="M19">
-        <v>0.2204947775227808</v>
+        <v>0.3393960148625084</v>
       </c>
       <c r="N19">
-        <v>1.968590487350214</v>
+        <v>0.8406054453435043</v>
       </c>
       <c r="O19">
-        <v>3.575026525587361</v>
+        <v>2.012329554875663</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.723046609074288</v>
+        <v>1.511192019628794</v>
       </c>
       <c r="C20">
-        <v>0.2426458433768772</v>
+        <v>0.1381639907355492</v>
       </c>
       <c r="D20">
-        <v>0.05556954577389206</v>
+        <v>0.08774699519344153</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.010894502691677</v>
+        <v>0.7030565776740403</v>
       </c>
       <c r="G20">
-        <v>0.002459860261858275</v>
+        <v>0.0008019889541494733</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3888505050599349</v>
+        <v>1.204734947059052</v>
       </c>
       <c r="L20">
-        <v>0.29961623158907</v>
+        <v>0.288967335510506</v>
       </c>
       <c r="M20">
-        <v>0.2237341567737161</v>
+        <v>0.3522268161032471</v>
       </c>
       <c r="N20">
-        <v>1.961857841106308</v>
+        <v>0.8247159757425351</v>
       </c>
       <c r="O20">
-        <v>3.573472248593617</v>
+        <v>2.036904758479295</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7756169366874985</v>
+        <v>1.704801469062375</v>
       </c>
       <c r="C21">
-        <v>0.2423979748445078</v>
+        <v>0.1378078239363987</v>
       </c>
       <c r="D21">
-        <v>0.05824404698216057</v>
+        <v>0.09542812090055719</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.015689295424963</v>
+        <v>0.7501525552469985</v>
       </c>
       <c r="G21">
-        <v>0.002457172393439739</v>
+        <v>0.0007975821720658615</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4336911800928362</v>
+        <v>1.357924122005329</v>
       </c>
       <c r="L21">
-        <v>0.3055842660196504</v>
+        <v>0.3184450987996854</v>
       </c>
       <c r="M21">
-        <v>0.2347237385804135</v>
+        <v>0.3957005449402047</v>
       </c>
       <c r="N21">
-        <v>1.939949085452444</v>
+        <v>0.772977345822051</v>
       </c>
       <c r="O21">
-        <v>3.570263320721381</v>
+        <v>2.124735873061837</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8101609342707548</v>
+        <v>1.832271677143297</v>
       </c>
       <c r="C22">
-        <v>0.2422540887529649</v>
+        <v>0.1376096158914137</v>
       </c>
       <c r="D22">
-        <v>0.05997847929962319</v>
+        <v>0.1004427007696194</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.019278082568846</v>
+        <v>0.7822775537364919</v>
       </c>
       <c r="G22">
-        <v>0.002455483385237434</v>
+        <v>0.0007947570120532036</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4629983472077015</v>
+        <v>1.458520293850711</v>
       </c>
       <c r="L22">
-        <v>0.3096084572796798</v>
+        <v>0.3380878924798907</v>
       </c>
       <c r="M22">
-        <v>0.2419841868154862</v>
+        <v>0.4244130298987159</v>
       </c>
       <c r="N22">
-        <v>1.926161309605433</v>
+        <v>0.7404396539517712</v>
       </c>
       <c r="O22">
-        <v>3.569665687563543</v>
+        <v>2.186316949297151</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7917073168787567</v>
+        <v>1.764145860691087</v>
       </c>
       <c r="C23">
-        <v>0.2423292337669807</v>
+        <v>0.1377122199068594</v>
       </c>
       <c r="D23">
-        <v>0.0590540240121058</v>
+        <v>0.09776671693131078</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.01732106566844</v>
+        <v>0.765002913294623</v>
       </c>
       <c r="G23">
-        <v>0.00245637866628523</v>
+        <v>0.0007962599628460725</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4473566028313485</v>
+        <v>1.404781632883697</v>
       </c>
       <c r="L23">
-        <v>0.3074493740249551</v>
+        <v>0.3275677333806897</v>
       </c>
       <c r="M23">
-        <v>0.2381020437290857</v>
+        <v>0.4090592964962312</v>
       </c>
       <c r="N23">
-        <v>1.933471518569725</v>
+        <v>0.7576856239684844</v>
       </c>
       <c r="O23">
-        <v>3.569847501319515</v>
+        <v>2.153050602244491</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7221905645259881</v>
+        <v>1.508041844952203</v>
       </c>
       <c r="C24">
-        <v>0.2426502020557244</v>
+        <v>0.1381703913512027</v>
       </c>
       <c r="D24">
-        <v>0.05552560612206037</v>
+        <v>0.08762133482841961</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.010823824032805</v>
+        <v>0.7023082544529444</v>
       </c>
       <c r="G24">
-        <v>0.002459905339875358</v>
+        <v>0.0008020619375333604</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3881176613849675</v>
+        <v>1.202238173721469</v>
       </c>
       <c r="L24">
-        <v>0.2995207816849899</v>
+        <v>0.2884914945163217</v>
       </c>
       <c r="M24">
-        <v>0.2235558661567865</v>
+        <v>0.3515209108120487</v>
       </c>
       <c r="N24">
-        <v>1.96222488771325</v>
+        <v>0.8255824694882801</v>
       </c>
       <c r="O24">
-        <v>3.573550025922543</v>
+        <v>2.035536042396274</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6480256098870143</v>
+        <v>1.235141573199257</v>
       </c>
       <c r="C25">
-        <v>0.2430749241266561</v>
+        <v>0.1388111758812833</v>
       </c>
       <c r="D25">
-        <v>0.05166241177751374</v>
+        <v>0.07664386697155834</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.005772331589291</v>
+        <v>0.639898505439632</v>
       </c>
       <c r="G25">
-        <v>0.002464001730925614</v>
+        <v>0.0008085691532719472</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3242390304662308</v>
+        <v>0.9853555109592378</v>
       </c>
       <c r="L25">
-        <v>0.2915022461205581</v>
+        <v>0.2477801683278358</v>
       </c>
       <c r="M25">
-        <v>0.2082051159760994</v>
+        <v>0.2905628603519403</v>
       </c>
       <c r="N25">
-        <v>1.99551812712056</v>
+        <v>0.9039948134212779</v>
       </c>
       <c r="O25">
-        <v>3.583987825270697</v>
+        <v>1.925092395669225</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.036362037626674</v>
+        <v>1.022436815243282</v>
       </c>
       <c r="C2">
-        <v>0.1394073590602254</v>
+        <v>0.2391367253329122</v>
       </c>
       <c r="D2">
-        <v>0.06851933456545112</v>
+        <v>0.3126510065951038</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5978504982012396</v>
+        <v>1.173656772941271</v>
       </c>
       <c r="G2">
-        <v>0.0008135887947382493</v>
+        <v>0.7183356927170763</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0008471618188996555</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001714353014130143</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5267010031157469</v>
       </c>
       <c r="K2">
-        <v>0.8265323600134593</v>
+        <v>0.4652228878045399</v>
       </c>
       <c r="L2">
-        <v>0.2188491400206942</v>
+        <v>0.4692242992298787</v>
       </c>
       <c r="M2">
-        <v>0.2464359578961854</v>
+        <v>1.219163138968383</v>
       </c>
       <c r="N2">
-        <v>0.9658790742293792</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.85612376737916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.9384048534546388</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9026613916311987</v>
+        <v>0.8897177889654415</v>
       </c>
       <c r="C3">
-        <v>0.1398883142339891</v>
+        <v>0.2075480784178296</v>
       </c>
       <c r="D3">
-        <v>0.06298139743164199</v>
+        <v>0.2740983041473442</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5715216040550715</v>
+        <v>1.100810069075706</v>
       </c>
       <c r="G3">
-        <v>0.0008171398386170256</v>
+        <v>0.6806812897597609</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.002003960383528014</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002827540119449079</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5135173265812938</v>
       </c>
       <c r="K3">
-        <v>0.7192081269171808</v>
+        <v>0.4555561930012466</v>
       </c>
       <c r="L3">
-        <v>0.1998052992619037</v>
+        <v>0.4121123112003175</v>
       </c>
       <c r="M3">
-        <v>0.2169131158643225</v>
+        <v>1.060267008016666</v>
       </c>
       <c r="N3">
-        <v>1.01026854599737</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.816315259067267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9703496891027861</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8209687358233282</v>
+        <v>0.8079397203013343</v>
       </c>
       <c r="C4">
-        <v>0.1402213863481165</v>
+        <v>0.1884170571251644</v>
       </c>
       <c r="D4">
-        <v>0.05956365324780677</v>
+        <v>0.2505214525548922</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5563422212218398</v>
+        <v>1.056565244790306</v>
       </c>
       <c r="G4">
-        <v>0.0008193958603884615</v>
+        <v>0.6579812295548635</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002996305794288667</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003749452956649524</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5057058914557047</v>
       </c>
       <c r="K4">
-        <v>0.6533953896848459</v>
+        <v>0.4498046014355097</v>
       </c>
       <c r="L4">
-        <v>0.1883628523322614</v>
+        <v>0.3770692502949942</v>
       </c>
       <c r="M4">
-        <v>0.198947380768896</v>
+        <v>0.9627685024091761</v>
       </c>
       <c r="N4">
-        <v>1.038689200122111</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.795054400466725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9904807525604653</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7877654122098647</v>
+        <v>0.7737347278206812</v>
       </c>
       <c r="C5">
-        <v>0.1403665907855149</v>
+        <v>0.1810865755272744</v>
       </c>
       <c r="D5">
-        <v>0.05816629508500171</v>
+        <v>0.2411171289811023</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5503930834254191</v>
+        <v>1.037838861743708</v>
       </c>
       <c r="G5">
-        <v>0.0008203345226377445</v>
+        <v>0.6481089135451157</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003470277554061596</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004259604773765524</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5022218235597222</v>
       </c>
       <c r="K5">
-        <v>0.6265882575715693</v>
+        <v>0.4469958586299825</v>
       </c>
       <c r="L5">
-        <v>0.1837592155203893</v>
+        <v>0.3627782522664802</v>
       </c>
       <c r="M5">
-        <v>0.1916630813109066</v>
+        <v>0.9228698684040069</v>
       </c>
       <c r="N5">
-        <v>1.050557644424492</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.787157177985122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9985249276422792</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7822569042646705</v>
+        <v>0.7670678189501245</v>
       </c>
       <c r="C6">
-        <v>0.1403912735834787</v>
+        <v>0.1803694514464382</v>
       </c>
       <c r="D6">
-        <v>0.05793398089441126</v>
+        <v>0.2397809129988389</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.549419195788758</v>
+        <v>1.033748419983603</v>
       </c>
       <c r="G6">
-        <v>0.000820491561710435</v>
+        <v>0.6455957178022516</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003555220497193035</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004449470838517655</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5011966399980423</v>
       </c>
       <c r="K6">
-        <v>0.6221374237403978</v>
+        <v>0.4459108736882129</v>
       </c>
       <c r="L6">
-        <v>0.1829982575552691</v>
+        <v>0.3603914972216984</v>
       </c>
       <c r="M6">
-        <v>0.1904556517467597</v>
+        <v>0.9160332091935857</v>
       </c>
       <c r="N6">
-        <v>1.052545535502411</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.785891214915125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.999521031969012</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8205206088952082</v>
+        <v>0.8047855800381569</v>
       </c>
       <c r="C7">
-        <v>0.1402233062872291</v>
+        <v>0.1896765672417189</v>
       </c>
       <c r="D7">
-        <v>0.05954482688983376</v>
+        <v>0.25100821769324</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5562610459926915</v>
+        <v>1.05361459351235</v>
       </c>
       <c r="G7">
-        <v>0.0008194084409633576</v>
+        <v>0.6554443869411699</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.003007898544648113</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004017446935075775</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5044286473576705</v>
       </c>
       <c r="K7">
-        <v>0.6530338222051597</v>
+        <v>0.4480702162290982</v>
       </c>
       <c r="L7">
-        <v>0.1883005309913131</v>
+        <v>0.3768392029853374</v>
       </c>
       <c r="M7">
-        <v>0.1988489975845447</v>
+        <v>0.9616496521112765</v>
       </c>
       <c r="N7">
-        <v>1.038848108905642</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.794944834128742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9896544400878167</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.990170637727914</v>
+        <v>0.9731289566232988</v>
       </c>
       <c r="C8">
-        <v>0.1395653405833954</v>
+        <v>0.2299978972530852</v>
       </c>
       <c r="D8">
-        <v>0.06661333535271297</v>
+        <v>0.3001544171429487</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5885604071789814</v>
+        <v>1.144860118909946</v>
       </c>
       <c r="G8">
-        <v>0.0008147976673793183</v>
+        <v>0.702079129004531</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001189900078794937</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002357690434643622</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5204715514859117</v>
       </c>
       <c r="K8">
-        <v>0.7895036349405871</v>
+        <v>0.459610060475022</v>
       </c>
       <c r="L8">
-        <v>0.2122285064077261</v>
+        <v>0.4494736441244953</v>
       </c>
       <c r="M8">
-        <v>0.2362206874641828</v>
+        <v>1.163574402750015</v>
       </c>
       <c r="N8">
-        <v>0.980938862801775</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.841716874853233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9481388336752961</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.326687383124892</v>
+        <v>1.306086266622259</v>
       </c>
       <c r="C9">
-        <v>0.1385759049540098</v>
+        <v>0.3089944298013165</v>
       </c>
       <c r="D9">
-        <v>0.08034734671316812</v>
+        <v>0.3963363531484276</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6602775674447585</v>
+        <v>1.332972241777711</v>
       </c>
       <c r="G9">
-        <v>0.0008063426329995571</v>
+        <v>0.8015529295031456</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.376506679701578E-06</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007347521809411006</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5565431867125739</v>
       </c>
       <c r="K9">
-        <v>1.058246118940275</v>
+        <v>0.4868583909209505</v>
       </c>
       <c r="L9">
-        <v>0.2613192424927462</v>
+        <v>0.5924335954395588</v>
       </c>
       <c r="M9">
-        <v>0.3109667295841803</v>
+        <v>1.561645404246548</v>
       </c>
       <c r="N9">
-        <v>0.8769175770163891</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.960269357191009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.872560124718385</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.577255065135688</v>
+        <v>1.542755099797461</v>
       </c>
       <c r="C10">
-        <v>0.1380344080246658</v>
+        <v>0.3659846335180816</v>
       </c>
       <c r="D10">
-        <v>0.09037709229909296</v>
+        <v>0.4547790770998859</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.718885684007553</v>
+        <v>1.450378268359401</v>
       </c>
       <c r="G10">
-        <v>0.0008004682653113507</v>
+        <v>0.8647317053402901</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0008970916191617384</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001076511264294311</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5784345208131185</v>
       </c>
       <c r="K10">
-        <v>1.257062913022025</v>
+        <v>0.5017618062547911</v>
       </c>
       <c r="L10">
-        <v>0.2989749509145412</v>
+        <v>0.6654862291208019</v>
       </c>
       <c r="M10">
-        <v>0.3670414544505505</v>
+        <v>1.845442098926895</v>
       </c>
       <c r="N10">
-        <v>0.8067314523497924</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.066064944101953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.817098998472904</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.692203579367288</v>
+        <v>1.595747880499829</v>
       </c>
       <c r="C11">
-        <v>0.137828894796364</v>
+        <v>0.3633655287314639</v>
       </c>
       <c r="D11">
-        <v>0.09493074922367839</v>
+        <v>0.3725731124074798</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7470242830026024</v>
+        <v>1.306822386762207</v>
       </c>
       <c r="G11">
-        <v>0.0007978644805227936</v>
+        <v>0.7920264531361738</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01931555454915213</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001778411265896729</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5379647099268396</v>
       </c>
       <c r="K11">
-        <v>1.34797135670064</v>
+        <v>0.4600758416050326</v>
       </c>
       <c r="L11">
-        <v>0.3165135958260379</v>
+        <v>0.4454681880127396</v>
       </c>
       <c r="M11">
-        <v>0.3928666383980115</v>
+        <v>1.888265119194216</v>
       </c>
       <c r="N11">
-        <v>0.7762565666907992</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.118806473566963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7753781720772475</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.735890769153798</v>
+        <v>1.594155599601976</v>
       </c>
       <c r="C12">
-        <v>0.137756996521361</v>
+        <v>0.346956810853527</v>
       </c>
       <c r="D12">
-        <v>0.0966541524958231</v>
+        <v>0.297767378893127</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.757909042769711</v>
+        <v>1.170889833427992</v>
       </c>
       <c r="G12">
-        <v>0.0007968879411992158</v>
+        <v>0.7230353050355376</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05778170131789295</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001796547018349415</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5018292282823182</v>
       </c>
       <c r="K12">
-        <v>1.382477224753927</v>
+        <v>0.4255170792555916</v>
       </c>
       <c r="L12">
-        <v>0.3232193627866877</v>
+        <v>0.2849106545667013</v>
       </c>
       <c r="M12">
-        <v>0.4026970445654214</v>
+        <v>1.864325184440304</v>
       </c>
       <c r="N12">
-        <v>0.7649345772140919</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.139491088193608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7582778551286833</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.726474559529748</v>
+        <v>1.546184186465155</v>
       </c>
       <c r="C13">
-        <v>0.1377722166114097</v>
+        <v>0.3212746913215767</v>
       </c>
       <c r="D13">
-        <v>0.09628302456609106</v>
+        <v>0.2257514093101776</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7555543378244352</v>
+        <v>1.029193249692497</v>
       </c>
       <c r="G13">
-        <v>0.0007970978422344507</v>
+        <v>0.6492208732456533</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132960270366965</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001631672977198129</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4650031741894054</v>
       </c>
       <c r="K13">
-        <v>1.375041943397491</v>
+        <v>0.3917639970829079</v>
       </c>
       <c r="L13">
-        <v>0.3217722068992401</v>
+        <v>0.1612829385316203</v>
       </c>
       <c r="M13">
-        <v>0.4005775330121111</v>
+        <v>1.78688757900224</v>
       </c>
       <c r="N13">
-        <v>0.7673631128080416</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.135003780972966</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.757042087425658</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.695794450720285</v>
+        <v>1.491022339951058</v>
       </c>
       <c r="C14">
-        <v>0.1378228605877538</v>
+        <v>0.2997119472668146</v>
       </c>
       <c r="D14">
-        <v>0.0950725521643605</v>
+        <v>0.1782615599837811</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7479150832561174</v>
+        <v>0.9284574797563607</v>
       </c>
       <c r="G14">
-        <v>0.0007977839527862489</v>
+        <v>0.5955147710650976</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625072604008011</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001542894776608961</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.438925876469284</v>
       </c>
       <c r="K14">
-        <v>1.350808472774901</v>
+        <v>0.3684266903502262</v>
       </c>
       <c r="L14">
-        <v>0.3170639627984997</v>
+        <v>0.09747457501973855</v>
       </c>
       <c r="M14">
-        <v>0.3936743377648284</v>
+        <v>1.708742758721115</v>
       </c>
       <c r="N14">
-        <v>0.7753206719648116</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.12049363668703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.7637423239632639</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.677023282131017</v>
+        <v>1.466800942962237</v>
       </c>
       <c r="C15">
-        <v>0.1378546548937791</v>
+        <v>0.2930118482726982</v>
       </c>
       <c r="D15">
-        <v>0.09433098654350403</v>
+        <v>0.1665374894535887</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7432661968295946</v>
+        <v>0.9013660407738371</v>
       </c>
       <c r="G15">
-        <v>0.0007982054349890709</v>
+        <v>0.5805104468796145</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749740802786164</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001609774783778661</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4319936579247781</v>
       </c>
       <c r="K15">
-        <v>1.335975724368183</v>
+        <v>0.3622990785882578</v>
       </c>
       <c r="L15">
-        <v>0.3141885645927402</v>
+        <v>0.0847006922343283</v>
       </c>
       <c r="M15">
-        <v>0.3894527372607399</v>
+        <v>1.678360514767064</v>
       </c>
       <c r="N15">
-        <v>0.7802236054961131</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.111700057498069</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7680136267254536</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.569763991426214</v>
+        <v>1.374184115755725</v>
       </c>
       <c r="C16">
-        <v>0.1380486647281103</v>
+        <v>0.2750937933127489</v>
       </c>
       <c r="D16">
-        <v>0.09007934704404619</v>
+        <v>0.1586381235164822</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7170779042847713</v>
+        <v>0.8809809814349805</v>
       </c>
       <c r="G16">
-        <v>0.0008006397740726903</v>
+        <v>0.5679393487367292</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620985343469101</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001580704359724017</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4296307334718534</v>
       </c>
       <c r="K16">
-        <v>1.251132364876725</v>
+        <v>0.3620170557313038</v>
       </c>
       <c r="L16">
-        <v>0.2978374461401785</v>
+        <v>0.08282864365567022</v>
       </c>
       <c r="M16">
-        <v>0.3653605450512529</v>
+        <v>1.573469162584416</v>
       </c>
       <c r="N16">
-        <v>0.8087530739729374</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.062715131043944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7895665512398775</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.504224643698251</v>
+        <v>1.332298135991579</v>
       </c>
       <c r="C17">
-        <v>0.1381781749230022</v>
+        <v>0.2727788481783193</v>
       </c>
       <c r="D17">
-        <v>0.08746903637141656</v>
+        <v>0.1767384687545643</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7014022813724168</v>
+        <v>0.9177809477807983</v>
       </c>
       <c r="G17">
-        <v>0.0008021504334481344</v>
+        <v>0.5864216847690784</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242745811567261</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001644585941495968</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4415347920231198</v>
       </c>
       <c r="K17">
-        <v>1.199212534570307</v>
+        <v>0.3740100348074087</v>
       </c>
       <c r="L17">
-        <v>0.2879150668612596</v>
+        <v>0.1109305929952527</v>
       </c>
       <c r="M17">
-        <v>0.3506655997803492</v>
+        <v>1.534371610569082</v>
       </c>
       <c r="N17">
-        <v>0.8266335420904003</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.033880206523918</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.8025214529094313</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.466617602389732</v>
+        <v>1.33127509907635</v>
       </c>
       <c r="C18">
-        <v>0.1382565038307355</v>
+        <v>0.2826531278037407</v>
       </c>
       <c r="D18">
-        <v>0.0859667946132916</v>
+        <v>0.2230490544986026</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6925240742226393</v>
+        <v>1.013183728923664</v>
       </c>
       <c r="G18">
-        <v>0.0008030257965493397</v>
+        <v>0.636606518864312</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07141162918563282</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001432256580867097</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4684140347467718</v>
       </c>
       <c r="K18">
-        <v>1.169392568515093</v>
+        <v>0.3997511390145334</v>
       </c>
       <c r="L18">
-        <v>0.2822461142074957</v>
+        <v>0.188093623501608</v>
       </c>
       <c r="M18">
-        <v>0.3422428997324545</v>
+        <v>1.547557559590899</v>
       </c>
       <c r="N18">
-        <v>0.8370541033478691</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.017726349297163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.8121046842480979</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.453899279846354</v>
+        <v>1.35802553606112</v>
       </c>
       <c r="C19">
-        <v>0.1382836822654419</v>
+        <v>0.3044640329379718</v>
       </c>
       <c r="D19">
-        <v>0.0854580043525246</v>
+        <v>0.2961984990793667</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.689541271889361</v>
+        <v>1.150758841114538</v>
       </c>
       <c r="G19">
-        <v>0.0008033233025241393</v>
+        <v>0.70724685947431</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02616345992061042</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001538101321076013</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5044604417824701</v>
       </c>
       <c r="K19">
-        <v>1.159303010403335</v>
+        <v>0.4333200717646015</v>
       </c>
       <c r="L19">
-        <v>0.2803330935188058</v>
+        <v>0.3298022829314675</v>
       </c>
       <c r="M19">
-        <v>0.3393960148625084</v>
+        <v>1.600943205416883</v>
       </c>
       <c r="N19">
-        <v>0.8406054453435043</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.012329554875663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.8215682156428241</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.511192019628794</v>
+        <v>1.471763724708751</v>
       </c>
       <c r="C20">
-        <v>0.1381639907355492</v>
+        <v>0.3550854345996299</v>
       </c>
       <c r="D20">
-        <v>0.08774699519344153</v>
+        <v>0.4407766860719562</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7030565776740403</v>
+        <v>1.409982372244741</v>
       </c>
       <c r="G20">
-        <v>0.0008019889541494733</v>
+        <v>0.8400018104466511</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0005275936796920178</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001654967861027146</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5685436353540325</v>
       </c>
       <c r="K20">
-        <v>1.204734947059052</v>
+        <v>0.4923263897132912</v>
       </c>
       <c r="L20">
-        <v>0.288967335510506</v>
+        <v>0.6447840426815645</v>
       </c>
       <c r="M20">
-        <v>0.3522268161032471</v>
+        <v>1.768507242154186</v>
       </c>
       <c r="N20">
-        <v>0.8247159757425351</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.036904758479295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8289772346925126</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.704801469062375</v>
+        <v>1.663785424491039</v>
       </c>
       <c r="C21">
-        <v>0.1378078239363987</v>
+        <v>0.4041899954843018</v>
       </c>
       <c r="D21">
-        <v>0.09542812090055719</v>
+        <v>0.5061491565058134</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7501525552469985</v>
+        <v>1.538503687665667</v>
       </c>
       <c r="G21">
-        <v>0.0007975821720658615</v>
+        <v>0.9090142352892627</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001675408116957433</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002266885402314678</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5956488845934729</v>
       </c>
       <c r="K21">
-        <v>1.357924122005329</v>
+        <v>0.5137425833765761</v>
       </c>
       <c r="L21">
-        <v>0.3184450987996854</v>
+        <v>0.7516270569992685</v>
       </c>
       <c r="M21">
-        <v>0.3957005449402047</v>
+        <v>2.002445929544592</v>
       </c>
       <c r="N21">
-        <v>0.772977345822051</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.124735873061837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.791747555808211</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.832271677143297</v>
+        <v>1.789997842453573</v>
       </c>
       <c r="C22">
-        <v>0.1376096158914137</v>
+        <v>0.4331018976798759</v>
       </c>
       <c r="D22">
-        <v>0.1004427007696194</v>
+        <v>0.5414904879524158</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7822775537364919</v>
+        <v>1.615273778068058</v>
       </c>
       <c r="G22">
-        <v>0.0007947570120532036</v>
+        <v>0.952076457473467</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002843448102778368</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002683076916579097</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6124240121010587</v>
       </c>
       <c r="K22">
-        <v>1.458520293850711</v>
+        <v>0.5274249457398028</v>
       </c>
       <c r="L22">
-        <v>0.3380878924798907</v>
+        <v>0.8051606077490447</v>
       </c>
       <c r="M22">
-        <v>0.4244130298987159</v>
+        <v>2.15171010778235</v>
       </c>
       <c r="N22">
-        <v>0.7404396539517712</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.186316949297151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.7677457954280769</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.764145860691087</v>
+        <v>1.725939297413362</v>
       </c>
       <c r="C23">
-        <v>0.1377122199068594</v>
+        <v>0.4159673299847668</v>
       </c>
       <c r="D23">
-        <v>0.09776671693131078</v>
+        <v>0.5218607163589013</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.765002913294623</v>
+        <v>1.577401253049842</v>
       </c>
       <c r="G23">
-        <v>0.0007962599628460725</v>
+        <v>0.9318532653845466</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002188590370326704</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002140972764022919</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6048636208914786</v>
       </c>
       <c r="K23">
-        <v>1.404781632883697</v>
+        <v>0.5220695968538891</v>
       </c>
       <c r="L23">
-        <v>0.3275677333806897</v>
+        <v>0.7766115509432154</v>
       </c>
       <c r="M23">
-        <v>0.4090592964962312</v>
+        <v>2.072724352850258</v>
       </c>
       <c r="N23">
-        <v>0.7576856239684844</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.153050602244491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7813674208262942</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.508041844952203</v>
+        <v>1.478157088713175</v>
       </c>
       <c r="C24">
-        <v>0.1381703913512027</v>
+        <v>0.3546060686416297</v>
       </c>
       <c r="D24">
-        <v>0.08762133482841961</v>
+        <v>0.4491278217754484</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7023082544529444</v>
+        <v>1.430829508652124</v>
       </c>
       <c r="G24">
-        <v>0.0008020619375333604</v>
+        <v>0.8523417172186072</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0004582182232915066</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001175227851757832</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5748343286052773</v>
       </c>
       <c r="K24">
-        <v>1.202238173721469</v>
+        <v>0.4993095527042968</v>
       </c>
       <c r="L24">
-        <v>0.2884914945163217</v>
+        <v>0.6689263645736645</v>
       </c>
       <c r="M24">
-        <v>0.3515209108120487</v>
+        <v>1.773522924050241</v>
       </c>
       <c r="N24">
-        <v>0.8255824694882801</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.035536042396274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8328691751458859</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.235141573199257</v>
+        <v>1.211211497339775</v>
       </c>
       <c r="C25">
-        <v>0.1388111758812833</v>
+        <v>0.2898319784309535</v>
       </c>
       <c r="D25">
-        <v>0.07664386697155834</v>
+        <v>0.3713232121154135</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.639898505439632</v>
+        <v>1.276658803265022</v>
       </c>
       <c r="G25">
-        <v>0.0008085691532719472</v>
+        <v>0.7698443309658245</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>5.102413010638074E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001369502538144829</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5442936285635653</v>
       </c>
       <c r="K25">
-        <v>0.9853555109592378</v>
+        <v>0.4762515668194141</v>
       </c>
       <c r="L25">
-        <v>0.2477801683278358</v>
+        <v>0.5536005926176557</v>
       </c>
       <c r="M25">
-        <v>0.2905628603519403</v>
+        <v>1.452675823773291</v>
       </c>
       <c r="N25">
-        <v>0.9039948134212779</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.925092395669225</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8910413268336796</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.022436815243282</v>
+        <v>0.9584653020651501</v>
       </c>
       <c r="C2">
-        <v>0.2391367253329122</v>
+        <v>0.2711375325295364</v>
       </c>
       <c r="D2">
-        <v>0.3126510065951038</v>
+        <v>0.3307108103017242</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.173656772941271</v>
+        <v>1.095566521397075</v>
       </c>
       <c r="G2">
-        <v>0.7183356927170763</v>
+        <v>0.6314123093148254</v>
       </c>
       <c r="H2">
-        <v>0.0008471618188996555</v>
+        <v>0.000686789252194675</v>
       </c>
       <c r="I2">
-        <v>0.001714353014130143</v>
+        <v>0.001200522099835233</v>
       </c>
       <c r="J2">
-        <v>0.5267010031157469</v>
+        <v>0.5126277337118097</v>
       </c>
       <c r="K2">
-        <v>0.4652228878045399</v>
+        <v>0.4069020529276806</v>
       </c>
       <c r="L2">
-        <v>0.4692242992298787</v>
+        <v>0.1959812105565675</v>
       </c>
       <c r="M2">
-        <v>1.219163138968383</v>
+        <v>0.1157405808470315</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4715860198685959</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.207574527885271</v>
       </c>
       <c r="P2">
-        <v>0.9384048534546388</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8916912288973382</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8897177889654415</v>
+        <v>0.8380328984453058</v>
       </c>
       <c r="C3">
-        <v>0.2075480784178296</v>
+        <v>0.233181001339176</v>
       </c>
       <c r="D3">
-        <v>0.2740983041473442</v>
+        <v>0.2894513536354424</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.100810069075706</v>
+        <v>1.032642920929703</v>
       </c>
       <c r="G3">
-        <v>0.6806812897597609</v>
+        <v>0.6040315952780162</v>
       </c>
       <c r="H3">
-        <v>0.002003960383528014</v>
+        <v>0.001694642472445329</v>
       </c>
       <c r="I3">
-        <v>0.002827540119449079</v>
+        <v>0.001913951973844696</v>
       </c>
       <c r="J3">
-        <v>0.5135173265812938</v>
+        <v>0.4994273352297398</v>
       </c>
       <c r="K3">
-        <v>0.4555561930012466</v>
+        <v>0.4021550125663964</v>
       </c>
       <c r="L3">
-        <v>0.4121123112003175</v>
+        <v>0.1990970059067365</v>
       </c>
       <c r="M3">
-        <v>1.060267008016666</v>
+        <v>0.1103676507382563</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.414913739170359</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.051447351136261</v>
       </c>
       <c r="P3">
-        <v>0.9703496891027861</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.922520895446528</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8079397203013343</v>
+        <v>0.7635825360416106</v>
       </c>
       <c r="C4">
-        <v>0.1884170571251644</v>
+        <v>0.2102573803786356</v>
       </c>
       <c r="D4">
-        <v>0.2505214525548922</v>
+        <v>0.2642473917281194</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.056565244790306</v>
+        <v>0.99429695429113</v>
       </c>
       <c r="G4">
-        <v>0.6579812295548635</v>
+        <v>0.5876158078766593</v>
       </c>
       <c r="H4">
-        <v>0.002996305794288667</v>
+        <v>0.002570385113023876</v>
       </c>
       <c r="I4">
-        <v>0.003749452956649524</v>
+        <v>0.002543969709404514</v>
       </c>
       <c r="J4">
-        <v>0.5057058914557047</v>
+        <v>0.4913381942555191</v>
       </c>
       <c r="K4">
-        <v>0.4498046014355097</v>
+        <v>0.3993143116139386</v>
       </c>
       <c r="L4">
-        <v>0.3770692502949942</v>
+        <v>0.2009854779069329</v>
       </c>
       <c r="M4">
-        <v>0.9627685024091761</v>
+        <v>0.1076616631078107</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3801210639817327</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9555343846433857</v>
       </c>
       <c r="P4">
-        <v>0.9904807525604653</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9419773813057617</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7737347278206812</v>
+        <v>0.7323523058398678</v>
       </c>
       <c r="C5">
-        <v>0.1810865755272744</v>
+        <v>0.2014288543204543</v>
       </c>
       <c r="D5">
-        <v>0.2411171289811023</v>
+        <v>0.2541889684209622</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.037838861743708</v>
+        <v>0.9779717627656694</v>
       </c>
       <c r="G5">
-        <v>0.6481089135451157</v>
+        <v>0.5803572075618035</v>
       </c>
       <c r="H5">
-        <v>0.003470277554061596</v>
+        <v>0.002990615692414433</v>
       </c>
       <c r="I5">
-        <v>0.004259604773765524</v>
+        <v>0.002935441580071974</v>
       </c>
       <c r="J5">
-        <v>0.5022218235597222</v>
+        <v>0.4876895449528718</v>
       </c>
       <c r="K5">
-        <v>0.4469958586299825</v>
+        <v>0.3977171220394133</v>
       </c>
       <c r="L5">
-        <v>0.3627782522664802</v>
+        <v>0.201530574605993</v>
       </c>
       <c r="M5">
-        <v>0.9228698684040069</v>
+        <v>0.1065812588900936</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.3659283297400435</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9162602261079655</v>
       </c>
       <c r="P5">
-        <v>0.9985249276422792</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9498223034250994</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7670678189501245</v>
+        <v>0.7262265749520793</v>
       </c>
       <c r="C6">
-        <v>0.1803694514464382</v>
+        <v>0.2004874885212473</v>
       </c>
       <c r="D6">
-        <v>0.2397809129988389</v>
+        <v>0.2527448312552991</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.033748419983603</v>
+        <v>0.9743315793185943</v>
       </c>
       <c r="G6">
-        <v>0.6455957178022516</v>
+        <v>0.5783500389301111</v>
       </c>
       <c r="H6">
-        <v>0.003555220497193035</v>
+        <v>0.003065983202500289</v>
       </c>
       <c r="I6">
-        <v>0.004449470838517655</v>
+        <v>0.003120340499228824</v>
       </c>
       <c r="J6">
-        <v>0.5011966399980423</v>
+        <v>0.4866499711700953</v>
       </c>
       <c r="K6">
-        <v>0.4459108736882129</v>
+        <v>0.3968957533989403</v>
       </c>
       <c r="L6">
-        <v>0.3603914972216984</v>
+        <v>0.2013549998419464</v>
       </c>
       <c r="M6">
-        <v>0.9160332091935857</v>
+        <v>0.1062567699907593</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3635582940926696</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9095318737936395</v>
       </c>
       <c r="P6">
-        <v>0.999521031969012</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9508751277754612</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8047855800381569</v>
+        <v>0.7600214451254317</v>
       </c>
       <c r="C7">
-        <v>0.1896765672417189</v>
+        <v>0.2109795970035862</v>
       </c>
       <c r="D7">
-        <v>0.25100821769324</v>
+        <v>0.2651264239695479</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.05361459351235</v>
+        <v>0.9898806541828193</v>
       </c>
       <c r="G7">
-        <v>0.6554443869411699</v>
+        <v>0.5883941135554949</v>
       </c>
       <c r="H7">
-        <v>0.003007898544648113</v>
+        <v>0.002584171658519208</v>
       </c>
       <c r="I7">
-        <v>0.004017446935075775</v>
+        <v>0.002854830432939437</v>
       </c>
       <c r="J7">
-        <v>0.5044286473576705</v>
+        <v>0.4846040355924259</v>
       </c>
       <c r="K7">
-        <v>0.4480702162290982</v>
+        <v>0.3971298390061797</v>
       </c>
       <c r="L7">
-        <v>0.3768392029853374</v>
+        <v>0.1999836872217209</v>
       </c>
       <c r="M7">
-        <v>0.9616496521112765</v>
+        <v>0.1070260116651216</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3798668414858497</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9531858464892764</v>
       </c>
       <c r="P7">
-        <v>0.9896544400878167</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9410757268756909</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9731289566232988</v>
+        <v>0.9116698325818788</v>
       </c>
       <c r="C8">
-        <v>0.2299978972530852</v>
+        <v>0.2579122550959596</v>
       </c>
       <c r="D8">
-        <v>0.3001544171429487</v>
+        <v>0.3186226162530517</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.144860118909946</v>
+        <v>1.064978912009551</v>
       </c>
       <c r="G8">
-        <v>0.702079129004531</v>
+        <v>0.6292976653313929</v>
       </c>
       <c r="H8">
-        <v>0.001189900078794937</v>
+        <v>0.0009899009390716973</v>
       </c>
       <c r="I8">
-        <v>0.002357690434643622</v>
+        <v>0.001776458505018397</v>
       </c>
       <c r="J8">
-        <v>0.5204715514859117</v>
+        <v>0.4885030857218027</v>
       </c>
       <c r="K8">
-        <v>0.459610060475022</v>
+        <v>0.4011504616098307</v>
       </c>
       <c r="L8">
-        <v>0.4494736441244953</v>
+        <v>0.1952868405605059</v>
       </c>
       <c r="M8">
-        <v>1.163574402750015</v>
+        <v>0.1124487299712094</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4519046129858424</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.148776322126196</v>
       </c>
       <c r="P8">
-        <v>0.9481388336752961</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.9004530604385104</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.306086266622259</v>
+        <v>1.211925786237543</v>
       </c>
       <c r="C9">
-        <v>0.3089944298013165</v>
+        <v>0.3528047861885568</v>
       </c>
       <c r="D9">
-        <v>0.3963363531484276</v>
+        <v>0.4221460216039645</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.332972241777711</v>
+        <v>1.225483752486937</v>
       </c>
       <c r="G9">
-        <v>0.8015529295031456</v>
+        <v>0.7057046293745657</v>
       </c>
       <c r="H9">
-        <v>7.376506679701578E-06</v>
+        <v>1.622949836166399E-05</v>
       </c>
       <c r="I9">
-        <v>0.0007347521809411006</v>
+        <v>0.0008108552382468659</v>
       </c>
       <c r="J9">
-        <v>0.5565431867125739</v>
+        <v>0.5179952722886867</v>
       </c>
       <c r="K9">
-        <v>0.4868583909209505</v>
+        <v>0.414728889488309</v>
       </c>
       <c r="L9">
-        <v>0.5924335954395588</v>
+        <v>0.1881225546386567</v>
       </c>
       <c r="M9">
-        <v>1.561645404246548</v>
+        <v>0.1293937576441841</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5936015921175795</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.537930803681888</v>
       </c>
       <c r="P9">
-        <v>0.872560124718385</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.8273666729698084</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.542755099797461</v>
+        <v>1.421117395237189</v>
       </c>
       <c r="C10">
-        <v>0.3659846335180816</v>
+        <v>0.41769795265472</v>
       </c>
       <c r="D10">
-        <v>0.4547790770998859</v>
+        <v>0.4878839525185299</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.450378268359401</v>
+        <v>1.314195311966245</v>
       </c>
       <c r="G10">
-        <v>0.8647317053402901</v>
+        <v>0.7721280530696504</v>
       </c>
       <c r="H10">
-        <v>0.0008970916191617384</v>
+        <v>0.0008947093563125286</v>
       </c>
       <c r="I10">
-        <v>0.001076511264294311</v>
+        <v>0.001362897262323415</v>
       </c>
       <c r="J10">
-        <v>0.5784345208131185</v>
+        <v>0.5042998965797949</v>
       </c>
       <c r="K10">
-        <v>0.5017618062547911</v>
+        <v>0.4167392893224999</v>
       </c>
       <c r="L10">
-        <v>0.6654862291208019</v>
+        <v>0.1797230540201546</v>
       </c>
       <c r="M10">
-        <v>1.845442098926895</v>
+        <v>0.1414316050050424</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6654443034386617</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.807142072609622</v>
       </c>
       <c r="P10">
-        <v>0.817098998472904</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7743092198475416</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.595747880499829</v>
+        <v>1.46664987157024</v>
       </c>
       <c r="C11">
-        <v>0.3633655287314639</v>
+        <v>0.4056067151533966</v>
       </c>
       <c r="D11">
-        <v>0.3725731124074798</v>
+        <v>0.4065992952939723</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.306822386762207</v>
+        <v>1.16209854733863</v>
       </c>
       <c r="G11">
-        <v>0.7920264531361738</v>
+        <v>0.7449844947909412</v>
       </c>
       <c r="H11">
-        <v>0.01931555454915213</v>
+        <v>0.01928618017089079</v>
       </c>
       <c r="I11">
-        <v>0.001778411265896729</v>
+        <v>0.002161290858292197</v>
       </c>
       <c r="J11">
-        <v>0.5379647099268396</v>
+        <v>0.4142796351109439</v>
       </c>
       <c r="K11">
-        <v>0.4600758416050326</v>
+        <v>0.3746976344541295</v>
       </c>
       <c r="L11">
-        <v>0.4454681880127396</v>
+        <v>0.1610681990040064</v>
       </c>
       <c r="M11">
-        <v>1.888265119194216</v>
+        <v>0.1297108310255624</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4449466299827094</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.833222510105116</v>
       </c>
       <c r="P11">
-        <v>0.7753781720772475</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7469261102911098</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.594155599601976</v>
+        <v>1.466726290433286</v>
       </c>
       <c r="C12">
-        <v>0.346956810853527</v>
+        <v>0.3818593058471151</v>
       </c>
       <c r="D12">
-        <v>0.297767378893127</v>
+        <v>0.3291724770033682</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.170889833427992</v>
+        <v>1.031557672312275</v>
       </c>
       <c r="G12">
-        <v>0.7230353050355376</v>
+        <v>0.6998015897508196</v>
       </c>
       <c r="H12">
-        <v>0.05778170131789295</v>
+        <v>0.05775359951543635</v>
       </c>
       <c r="I12">
-        <v>0.001796547018349415</v>
+        <v>0.002171516171338261</v>
       </c>
       <c r="J12">
-        <v>0.5018292282823182</v>
+        <v>0.3662750518450153</v>
       </c>
       <c r="K12">
-        <v>0.4255170792555916</v>
+        <v>0.3446516869720888</v>
       </c>
       <c r="L12">
-        <v>0.2849106545667013</v>
+        <v>0.1495023204620693</v>
       </c>
       <c r="M12">
-        <v>1.864325184440304</v>
+        <v>0.1191384766752712</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2843513475475845</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.803130627574319</v>
       </c>
       <c r="P12">
-        <v>0.7582778551286833</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7419722351232014</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.546184186465155</v>
+        <v>1.429401555583866</v>
       </c>
       <c r="C13">
-        <v>0.3212746913215767</v>
+        <v>0.3514712365391404</v>
       </c>
       <c r="D13">
-        <v>0.2257514093101776</v>
+        <v>0.251466201610981</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.029193249692497</v>
+        <v>0.9083459632093565</v>
       </c>
       <c r="G13">
-        <v>0.6492208732456533</v>
+        <v>0.6282730628078212</v>
       </c>
       <c r="H13">
-        <v>0.1132960270366965</v>
+        <v>0.1132844043601438</v>
       </c>
       <c r="I13">
-        <v>0.001631672977198129</v>
+        <v>0.002003230334380213</v>
       </c>
       <c r="J13">
-        <v>0.4650031741894054</v>
+        <v>0.3477160572857585</v>
       </c>
       <c r="K13">
-        <v>0.3917639970829079</v>
+        <v>0.3204448795119994</v>
       </c>
       <c r="L13">
-        <v>0.1612829385316203</v>
+        <v>0.1415599817105644</v>
       </c>
       <c r="M13">
-        <v>1.78688757900224</v>
+        <v>0.1086033095945851</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1609641132418744</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.730559175276596</v>
       </c>
       <c r="P13">
-        <v>0.757042087425658</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7503368086400251</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.491022339951058</v>
+        <v>1.385604510659618</v>
       </c>
       <c r="C14">
-        <v>0.2997119472668146</v>
+        <v>0.3276471548074937</v>
       </c>
       <c r="D14">
-        <v>0.1782615599837811</v>
+        <v>0.199098479695266</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9284574797563607</v>
+        <v>0.8251549757763641</v>
       </c>
       <c r="G14">
-        <v>0.5955147710650976</v>
+        <v>0.5681844874112301</v>
       </c>
       <c r="H14">
-        <v>0.1625072604008011</v>
+        <v>0.162505631630836</v>
       </c>
       <c r="I14">
-        <v>0.001542894776608961</v>
+        <v>0.001919926105943048</v>
       </c>
       <c r="J14">
-        <v>0.438925876469284</v>
+        <v>0.3451600462027145</v>
       </c>
       <c r="K14">
-        <v>0.3684266903502262</v>
+        <v>0.30561657304861</v>
       </c>
       <c r="L14">
-        <v>0.09747457501973855</v>
+        <v>0.1372827080129735</v>
       </c>
       <c r="M14">
-        <v>1.708742758721115</v>
+        <v>0.1012195718035329</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.09740089778426864</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.660439672080628</v>
       </c>
       <c r="P14">
-        <v>0.7637423239632639</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7617186044669069</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.466800942962237</v>
+        <v>1.365924445918154</v>
       </c>
       <c r="C15">
-        <v>0.2930118482726982</v>
+        <v>0.320781070642056</v>
       </c>
       <c r="D15">
-        <v>0.1665374894535887</v>
+        <v>0.1857881640047054</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9013660407738371</v>
+        <v>0.8044250861500188</v>
       </c>
       <c r="G15">
-        <v>0.5805104468796145</v>
+        <v>0.5485432689983867</v>
       </c>
       <c r="H15">
-        <v>0.1749740802786164</v>
+        <v>0.1749745307409825</v>
       </c>
       <c r="I15">
-        <v>0.001609774783778661</v>
+        <v>0.002005847756387347</v>
       </c>
       <c r="J15">
-        <v>0.4319936579247781</v>
+        <v>0.348690576059397</v>
       </c>
       <c r="K15">
-        <v>0.3622990785882578</v>
+        <v>0.3024468955420474</v>
       </c>
       <c r="L15">
-        <v>0.0847006922343283</v>
+        <v>0.1366355013657472</v>
       </c>
       <c r="M15">
-        <v>1.678360514767064</v>
+        <v>0.0992114743564585</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08472983982082383</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.633993169066287</v>
       </c>
       <c r="P15">
-        <v>0.7680136267254536</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7664076355885321</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.374184115755725</v>
+        <v>1.288330579259423</v>
       </c>
       <c r="C16">
-        <v>0.2750937933127489</v>
+        <v>0.3055109488336427</v>
       </c>
       <c r="D16">
-        <v>0.1586381235164822</v>
+        <v>0.1740839846367663</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8809809814349805</v>
+        <v>0.8022353556956645</v>
       </c>
       <c r="G16">
-        <v>0.5679393487367292</v>
+        <v>0.510733624824752</v>
       </c>
       <c r="H16">
-        <v>0.1620985343469101</v>
+        <v>0.1620910656058925</v>
       </c>
       <c r="I16">
-        <v>0.001580704359724017</v>
+        <v>0.001945149570932614</v>
       </c>
       <c r="J16">
-        <v>0.4296307334718534</v>
+        <v>0.3883910111419482</v>
       </c>
       <c r="K16">
-        <v>0.3620170557313038</v>
+        <v>0.3094546057466836</v>
       </c>
       <c r="L16">
-        <v>0.08282864365567022</v>
+        <v>0.1415337387770634</v>
       </c>
       <c r="M16">
-        <v>1.573469162584416</v>
+        <v>0.09828513127328264</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08330046313818684</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.545637692243275</v>
       </c>
       <c r="P16">
-        <v>0.7895665512398775</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7818415759111659</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.332298135991579</v>
+        <v>1.250999219426888</v>
       </c>
       <c r="C17">
-        <v>0.2727788481783193</v>
+        <v>0.3056874168770776</v>
       </c>
       <c r="D17">
-        <v>0.1767384687545643</v>
+        <v>0.1918166353533763</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9177809477807983</v>
+        <v>0.8429473583993925</v>
       </c>
       <c r="G17">
-        <v>0.5864216847690784</v>
+        <v>0.5162378752572749</v>
       </c>
       <c r="H17">
-        <v>0.1242745811567261</v>
+        <v>0.1242539425073801</v>
       </c>
       <c r="I17">
-        <v>0.001644585941495968</v>
+        <v>0.001977763157560375</v>
       </c>
       <c r="J17">
-        <v>0.4415347920231198</v>
+        <v>0.4176864351377816</v>
       </c>
       <c r="K17">
-        <v>0.3740100348074087</v>
+        <v>0.3222435570892088</v>
       </c>
       <c r="L17">
-        <v>0.1109305929952527</v>
+        <v>0.147706601199701</v>
       </c>
       <c r="M17">
-        <v>1.534371610569082</v>
+        <v>0.1011005181255555</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1116387263713889</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.513083384686041</v>
       </c>
       <c r="P17">
-        <v>0.8025214529094313</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7891370661442849</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.33127509907635</v>
+        <v>1.247454363312642</v>
       </c>
       <c r="C18">
-        <v>0.2826531278037407</v>
+        <v>0.3194570429009502</v>
       </c>
       <c r="D18">
-        <v>0.2230490544986026</v>
+        <v>0.2400617207462403</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.013183728923664</v>
+        <v>0.9331115271816799</v>
       </c>
       <c r="G18">
-        <v>0.636606518864312</v>
+        <v>0.5552096435457514</v>
       </c>
       <c r="H18">
-        <v>0.07141162918563282</v>
+        <v>0.07139164906958939</v>
       </c>
       <c r="I18">
-        <v>0.001432256580867097</v>
+        <v>0.001708579968206614</v>
       </c>
       <c r="J18">
-        <v>0.4684140347467718</v>
+        <v>0.4496026266664472</v>
       </c>
       <c r="K18">
-        <v>0.3997511390145334</v>
+        <v>0.3441439896634684</v>
       </c>
       <c r="L18">
-        <v>0.188093623501608</v>
+        <v>0.1567353768213948</v>
       </c>
       <c r="M18">
-        <v>1.547557559590899</v>
+        <v>0.1082892033502354</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1889267227671851</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.527961434877568</v>
       </c>
       <c r="P18">
-        <v>0.8121046842480979</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7917591677347442</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.35802553606112</v>
+        <v>1.267027655994553</v>
       </c>
       <c r="C19">
-        <v>0.3044640329379718</v>
+        <v>0.3467639232050317</v>
       </c>
       <c r="D19">
-        <v>0.2961984990793667</v>
+        <v>0.3168815411698205</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.150758841114538</v>
+        <v>1.059246990508157</v>
       </c>
       <c r="G19">
-        <v>0.70724685947431</v>
+        <v>0.6144406206691144</v>
       </c>
       <c r="H19">
-        <v>0.02616345992061042</v>
+        <v>0.02616034021498592</v>
       </c>
       <c r="I19">
-        <v>0.001538101321076013</v>
+        <v>0.001858412908014806</v>
       </c>
       <c r="J19">
-        <v>0.5044604417824701</v>
+        <v>0.4835690001829391</v>
       </c>
       <c r="K19">
-        <v>0.4333200717646015</v>
+        <v>0.3708908158705029</v>
       </c>
       <c r="L19">
-        <v>0.3298022829314675</v>
+        <v>0.1670522962162906</v>
       </c>
       <c r="M19">
-        <v>1.600943205416883</v>
+        <v>0.1181075733938464</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3306525840412178</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.580204738813791</v>
       </c>
       <c r="P19">
-        <v>0.8215682156428241</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7932202486002815</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.471763724708751</v>
+        <v>1.360227914893528</v>
       </c>
       <c r="C20">
-        <v>0.3550854345996299</v>
+        <v>0.4071149689327171</v>
       </c>
       <c r="D20">
-        <v>0.4407766860719562</v>
+        <v>0.4704610893505219</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.409982372244741</v>
+        <v>1.287979001568658</v>
       </c>
       <c r="G20">
-        <v>0.8400018104466511</v>
+        <v>0.7358368757583378</v>
       </c>
       <c r="H20">
-        <v>0.0005275936796920178</v>
+        <v>0.0005449316653134417</v>
       </c>
       <c r="I20">
-        <v>0.001654967861027146</v>
+        <v>0.002068959695155748</v>
       </c>
       <c r="J20">
-        <v>0.5685436353540325</v>
+        <v>0.5227936465442866</v>
       </c>
       <c r="K20">
-        <v>0.4923263897132912</v>
+        <v>0.4137250889551183</v>
       </c>
       <c r="L20">
-        <v>0.6447840426815645</v>
+        <v>0.1810020648994559</v>
       </c>
       <c r="M20">
-        <v>1.768507242154186</v>
+        <v>0.1371551505981472</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6451756712380643</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.738869262978795</v>
       </c>
       <c r="P20">
-        <v>0.8289772346925126</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7873409578952191</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.663785424491039</v>
+        <v>1.517032551486125</v>
       </c>
       <c r="C21">
-        <v>0.4041899954843018</v>
+        <v>0.4519607347614283</v>
       </c>
       <c r="D21">
-        <v>0.5061491565058134</v>
+        <v>0.5506780070011814</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.538503687665667</v>
+        <v>1.359356713836192</v>
       </c>
       <c r="G21">
-        <v>0.9090142352892627</v>
+        <v>0.8676034337590579</v>
       </c>
       <c r="H21">
-        <v>0.001675408116957433</v>
+        <v>0.001581540812491955</v>
       </c>
       <c r="I21">
-        <v>0.002266885402314678</v>
+        <v>0.002671202627772651</v>
       </c>
       <c r="J21">
-        <v>0.5956488845934729</v>
+        <v>0.4308184184161803</v>
       </c>
       <c r="K21">
-        <v>0.5137425833765761</v>
+        <v>0.4114272216183892</v>
       </c>
       <c r="L21">
-        <v>0.7516270569992685</v>
+        <v>0.1734382269768027</v>
       </c>
       <c r="M21">
-        <v>2.002445929544592</v>
+        <v>0.1454204464001876</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.750485021959733</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.935814784274271</v>
       </c>
       <c r="P21">
-        <v>0.791747555808211</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7464685988485609</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.789997842453573</v>
+        <v>1.619143151188212</v>
       </c>
       <c r="C22">
-        <v>0.4331018976798759</v>
+        <v>0.4765744115001667</v>
       </c>
       <c r="D22">
-        <v>0.5414904879524158</v>
+        <v>0.5963192850653058</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.615273778068058</v>
+        <v>1.396427166367303</v>
       </c>
       <c r="G22">
-        <v>0.952076457473467</v>
+        <v>0.9614328974562909</v>
       </c>
       <c r="H22">
-        <v>0.002843448102778368</v>
+        <v>0.002616234546368723</v>
       </c>
       <c r="I22">
-        <v>0.002683076916579097</v>
+        <v>0.002918033174893253</v>
       </c>
       <c r="J22">
-        <v>0.6124240121010587</v>
+        <v>0.3729540945440704</v>
       </c>
       <c r="K22">
-        <v>0.5274249457398028</v>
+        <v>0.4087961031768259</v>
       </c>
       <c r="L22">
-        <v>0.8051606077490447</v>
+        <v>0.1682491615381601</v>
       </c>
       <c r="M22">
-        <v>2.15171010778235</v>
+        <v>0.1506619488907077</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.8029597205936483</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.058351561219894</v>
       </c>
       <c r="P22">
-        <v>0.7677457954280769</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7206854030824623</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.725939297413362</v>
+        <v>1.569394201801089</v>
       </c>
       <c r="C23">
-        <v>0.4159673299847668</v>
+        <v>0.463302841268586</v>
       </c>
       <c r="D23">
-        <v>0.5218607163589013</v>
+        <v>0.5699933939159507</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.577401253049842</v>
+        <v>1.383873499390901</v>
       </c>
       <c r="G23">
-        <v>0.9318532653845466</v>
+        <v>0.9043887897782241</v>
       </c>
       <c r="H23">
-        <v>0.002188590370326704</v>
+        <v>0.002043294222214609</v>
       </c>
       <c r="I23">
-        <v>0.002140972764022919</v>
+        <v>0.00241722902898367</v>
       </c>
       <c r="J23">
-        <v>0.6048636208914786</v>
+        <v>0.414697791555767</v>
       </c>
       <c r="K23">
-        <v>0.5220695968538891</v>
+        <v>0.4134273778825133</v>
       </c>
       <c r="L23">
-        <v>0.7766115509432154</v>
+        <v>0.1720923261975003</v>
       </c>
       <c r="M23">
-        <v>2.072724352850258</v>
+        <v>0.1491845746129101</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7750379865361907</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.997154546758452</v>
       </c>
       <c r="P23">
-        <v>0.7813674208262942</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7350482933879705</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.478157088713175</v>
+        <v>1.365753337675415</v>
       </c>
       <c r="C24">
-        <v>0.3546060686416297</v>
+        <v>0.4071144993944529</v>
       </c>
       <c r="D24">
-        <v>0.4491278217754484</v>
+        <v>0.479177739436409</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.430829508652124</v>
+        <v>1.307394019122398</v>
       </c>
       <c r="G24">
-        <v>0.8523417172186072</v>
+        <v>0.7461143235475305</v>
       </c>
       <c r="H24">
-        <v>0.0004582182232915066</v>
+        <v>0.0004760217986135018</v>
       </c>
       <c r="I24">
-        <v>0.001175227851757832</v>
+        <v>0.001491290514284316</v>
       </c>
       <c r="J24">
-        <v>0.5748343286052773</v>
+        <v>0.5293023611073977</v>
       </c>
       <c r="K24">
-        <v>0.4993095527042968</v>
+        <v>0.4195871372808213</v>
       </c>
       <c r="L24">
-        <v>0.6689263645736645</v>
+        <v>0.1832591521364506</v>
       </c>
       <c r="M24">
-        <v>1.773522924050241</v>
+        <v>0.1393023518649841</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.6693115044802624</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.743931149162876</v>
       </c>
       <c r="P24">
-        <v>0.8328691751458859</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.789515927831653</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.211211497339775</v>
+        <v>1.127266562164834</v>
       </c>
       <c r="C25">
-        <v>0.2898319784309535</v>
+        <v>0.3302405957445274</v>
       </c>
       <c r="D25">
-        <v>0.3713232121154135</v>
+        <v>0.3945390280821925</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.276658803265022</v>
+        <v>1.179505563123186</v>
       </c>
       <c r="G25">
-        <v>0.7698443309658245</v>
+        <v>0.6761688123468588</v>
       </c>
       <c r="H25">
-        <v>5.102413010638074E-05</v>
+        <v>2.831856632612428E-05</v>
       </c>
       <c r="I25">
-        <v>0.001369502538144829</v>
+        <v>0.001394521680892602</v>
       </c>
       <c r="J25">
-        <v>0.5442936285635653</v>
+        <v>0.5155998742255576</v>
       </c>
       <c r="K25">
-        <v>0.4762515668194141</v>
+        <v>0.4092171121350567</v>
       </c>
       <c r="L25">
-        <v>0.5536005926176557</v>
+        <v>0.1893905964120499</v>
       </c>
       <c r="M25">
-        <v>1.452675823773291</v>
+        <v>0.1236581937672128</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.5551784060866254</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.433368609536842</v>
       </c>
       <c r="P25">
-        <v>0.8910413268336796</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8460872752237822</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
